--- a/Género/Violencia contra Mujer/27.11.xlsx
+++ b/Género/Violencia contra Mujer/27.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9F204-9103-4D45-B56E-A73A7DB14E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26774CA-1362-4CCB-AB86-34A7C00A90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1101">
   <si>
     <t>Región</t>
   </si>
@@ -2292,9 +2292,6 @@
   </si>
   <si>
     <t>Remota y Presencial</t>
-  </si>
-  <si>
-    <t>Remota y presencial</t>
   </si>
   <si>
     <t>8:00 a 13:00</t>
@@ -4327,7 +4324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC1950-7268-4533-993A-0DC3B075444A}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4343,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1" t="s">
         <v>748</v>
@@ -4361,16 +4360,16 @@
         <v>750</v>
       </c>
       <c r="G1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H1" t="s">
         <v>1072</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1073</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1074</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1075</v>
       </c>
       <c r="K1" t="s">
         <v>130</v>
@@ -4382,7 +4381,7 @@
         <v>133</v>
       </c>
       <c r="N1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O1" t="s">
         <v>135</v>
@@ -4400,7 +4399,7 @@
         <v>139</v>
       </c>
       <c r="T1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -4426,13 +4425,13 @@
         <v>270108</v>
       </c>
       <c r="H2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I2">
         <v>270108010</v>
       </c>
       <c r="J2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K2" t="s">
         <v>131</v>
@@ -4450,16 +4449,16 @@
         <v>753</v>
       </c>
       <c r="P2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R2" s="2">
         <v>5627912363</v>
       </c>
       <c r="S2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -4485,13 +4484,13 @@
         <v>270108</v>
       </c>
       <c r="H3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I3">
         <v>270108010</v>
       </c>
       <c r="J3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K3" t="s">
         <v>141</v>
@@ -4509,16 +4508,16 @@
         <v>753</v>
       </c>
       <c r="P3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>144</v>
       </c>
       <c r="S3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -4544,13 +4543,13 @@
         <v>270108</v>
       </c>
       <c r="H4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I4">
         <v>270108010</v>
       </c>
       <c r="J4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K4" t="s">
         <v>146</v>
@@ -4565,19 +4564,19 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R4" s="2">
         <v>56982532927</v>
       </c>
       <c r="S4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4603,13 +4602,13 @@
         <v>270108</v>
       </c>
       <c r="H5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I5">
         <v>270108010</v>
       </c>
       <c r="J5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K5" t="s">
         <v>150</v>
@@ -4627,7 +4626,7 @@
         <v>752</v>
       </c>
       <c r="P5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q5" t="s">
         <v>751</v>
@@ -4636,7 +4635,7 @@
         <v>153</v>
       </c>
       <c r="S5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4662,19 +4661,19 @@
         <v>270108</v>
       </c>
       <c r="H6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I6">
         <v>270108010</v>
       </c>
       <c r="J6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K6" t="s">
         <v>155</v>
       </c>
       <c r="L6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M6" t="s">
         <v>156</v>
@@ -4686,7 +4685,7 @@
         <v>752</v>
       </c>
       <c r="P6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q6" t="s">
         <v>751</v>
@@ -4695,7 +4694,7 @@
         <v>157</v>
       </c>
       <c r="S6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4721,19 +4720,19 @@
         <v>270108</v>
       </c>
       <c r="H7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I7">
         <v>270108010</v>
       </c>
       <c r="J7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K7" t="s">
         <v>159</v>
       </c>
       <c r="L7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M7" t="s">
         <v>160</v>
@@ -4745,16 +4744,16 @@
         <v>753</v>
       </c>
       <c r="P7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>161</v>
       </c>
       <c r="S7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4780,13 +4779,13 @@
         <v>270108</v>
       </c>
       <c r="H8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I8">
         <v>270108010</v>
       </c>
       <c r="J8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K8" t="s">
         <v>163</v>
@@ -4801,19 +4800,19 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R8" s="2">
         <v>552421372</v>
       </c>
       <c r="S8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -4839,13 +4838,13 @@
         <v>270108</v>
       </c>
       <c r="H9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I9">
         <v>270108010</v>
       </c>
       <c r="J9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K9" t="s">
         <v>167</v>
@@ -4860,19 +4859,19 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>170</v>
       </c>
       <c r="S9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4898,13 +4897,13 @@
         <v>270108</v>
       </c>
       <c r="H10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I10">
         <v>270108010</v>
       </c>
       <c r="J10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K10" t="s">
         <v>172</v>
@@ -4922,16 +4921,16 @@
         <v>753</v>
       </c>
       <c r="P10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R10" s="2">
         <v>976780591</v>
       </c>
       <c r="S10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4957,13 +4956,13 @@
         <v>270108</v>
       </c>
       <c r="H11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I11">
         <v>270108010</v>
       </c>
       <c r="J11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K11" t="s">
         <v>176</v>
@@ -4978,19 +4977,19 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P11" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q11" t="s">
         <v>782</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>783</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>179</v>
       </c>
       <c r="S11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -5007,7 +5006,7 @@
         <v>4101</v>
       </c>
       <c r="E12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F12" t="s">
         <v>180</v>
@@ -5016,13 +5015,13 @@
         <v>270108</v>
       </c>
       <c r="H12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I12">
         <v>270108010</v>
       </c>
       <c r="J12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K12" t="s">
         <v>181</v>
@@ -5037,13 +5036,13 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P12" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q12" t="s">
         <v>784</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>785</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>184</v>
@@ -5075,13 +5074,13 @@
         <v>270108</v>
       </c>
       <c r="H13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I13">
         <v>270108010</v>
       </c>
       <c r="J13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K13" t="s">
         <v>187</v>
@@ -5099,10 +5098,10 @@
         <v>753</v>
       </c>
       <c r="P13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>190</v>
@@ -5137,13 +5136,13 @@
         <v>270108</v>
       </c>
       <c r="H14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I14">
         <v>270108010</v>
       </c>
       <c r="J14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K14" t="s">
         <v>194</v>
@@ -5161,10 +5160,10 @@
         <v>753</v>
       </c>
       <c r="P14" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q14" t="s">
         <v>784</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>785</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>197</v>
@@ -5196,13 +5195,13 @@
         <v>270108</v>
       </c>
       <c r="H15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I15">
         <v>270108010</v>
       </c>
       <c r="J15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K15" t="s">
         <v>200</v>
@@ -5220,10 +5219,10 @@
         <v>753</v>
       </c>
       <c r="P15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>203</v>
@@ -5255,13 +5254,13 @@
         <v>270108</v>
       </c>
       <c r="H16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I16">
         <v>270108010</v>
       </c>
       <c r="J16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K16" t="s">
         <v>206</v>
@@ -5276,13 +5275,13 @@
         <v>5</v>
       </c>
       <c r="O16" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P16" t="s">
         <v>751</v>
       </c>
       <c r="Q16" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R16" s="3">
         <v>56958860160</v>
@@ -5314,19 +5313,19 @@
         <v>270108</v>
       </c>
       <c r="H17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I17">
         <v>270108010</v>
       </c>
       <c r="J17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K17" t="s">
         <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M17" t="s">
         <v>212</v>
@@ -5338,7 +5337,7 @@
         <v>752</v>
       </c>
       <c r="P17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q17" t="s">
         <v>751</v>
@@ -5373,13 +5372,13 @@
         <v>270108</v>
       </c>
       <c r="H18" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I18">
         <v>270108010</v>
       </c>
       <c r="J18" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K18" t="s">
         <v>216</v>
@@ -5397,10 +5396,10 @@
         <v>753</v>
       </c>
       <c r="P18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>219</v>
@@ -5432,13 +5431,13 @@
         <v>270108</v>
       </c>
       <c r="H19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I19">
         <v>270108010</v>
       </c>
       <c r="J19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K19" t="s">
         <v>222</v>
@@ -5453,13 +5452,13 @@
         <v>5</v>
       </c>
       <c r="O19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P19" t="s">
         <v>751</v>
       </c>
       <c r="Q19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R19" s="3">
         <v>56997316037</v>
@@ -5491,13 +5490,13 @@
         <v>270108</v>
       </c>
       <c r="H20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I20">
         <v>270108010</v>
       </c>
       <c r="J20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K20" t="s">
         <v>227</v>
@@ -5515,10 +5514,10 @@
         <v>753</v>
       </c>
       <c r="P20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>230</v>
@@ -5550,13 +5549,13 @@
         <v>270108</v>
       </c>
       <c r="H21" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I21">
         <v>270108010</v>
       </c>
       <c r="J21" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K21" t="s">
         <v>233</v>
@@ -5571,13 +5570,13 @@
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P21" t="s">
         <v>751</v>
       </c>
       <c r="Q21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>236</v>
@@ -5609,19 +5608,19 @@
         <v>270108</v>
       </c>
       <c r="H22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I22">
         <v>270108010</v>
       </c>
       <c r="J22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K22" t="s">
         <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M22" t="s">
         <v>240</v>
@@ -5630,13 +5629,13 @@
         <v>5</v>
       </c>
       <c r="O22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P22" t="s">
         <v>751</v>
       </c>
       <c r="Q22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>241</v>
@@ -5668,13 +5667,13 @@
         <v>270108</v>
       </c>
       <c r="H23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I23">
         <v>270108010</v>
       </c>
       <c r="J23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K23" t="s">
         <v>244</v>
@@ -5689,13 +5688,13 @@
         <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P23" t="s">
         <v>751</v>
       </c>
       <c r="Q23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>247</v>
@@ -5727,13 +5726,13 @@
         <v>270108</v>
       </c>
       <c r="H24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I24">
         <v>270108010</v>
       </c>
       <c r="J24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K24" t="s">
         <v>250</v>
@@ -5751,10 +5750,10 @@
         <v>753</v>
       </c>
       <c r="P24" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q24" t="s">
         <v>797</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>798</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>253</v>
@@ -5786,13 +5785,13 @@
         <v>270108</v>
       </c>
       <c r="H25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I25">
         <v>270108010</v>
       </c>
       <c r="J25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K25" t="s">
         <v>256</v>
@@ -5807,13 +5806,13 @@
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P25" t="s">
         <v>751</v>
       </c>
       <c r="Q25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>259</v>
@@ -5845,13 +5844,13 @@
         <v>270108</v>
       </c>
       <c r="H26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I26">
         <v>270108010</v>
       </c>
       <c r="J26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K26" t="s">
         <v>262</v>
@@ -5866,13 +5865,13 @@
         <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P26" t="s">
         <v>751</v>
       </c>
       <c r="Q26" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R26" s="3">
         <v>56998252300</v>
@@ -5904,13 +5903,13 @@
         <v>270108</v>
       </c>
       <c r="H27" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I27">
         <v>270108010</v>
       </c>
       <c r="J27" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K27" t="s">
         <v>267</v>
@@ -5928,7 +5927,7 @@
         <v>752</v>
       </c>
       <c r="P27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q27" t="s">
         <v>751</v>
@@ -5963,13 +5962,13 @@
         <v>270108</v>
       </c>
       <c r="H28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I28">
         <v>270108010</v>
       </c>
       <c r="J28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K28" t="s">
         <v>273</v>
@@ -5984,13 +5983,13 @@
         <v>5</v>
       </c>
       <c r="O28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P28" t="s">
         <v>751</v>
       </c>
       <c r="Q28" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>276</v>
@@ -6022,13 +6021,13 @@
         <v>270108</v>
       </c>
       <c r="H29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I29">
         <v>270108010</v>
       </c>
       <c r="J29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K29" t="s">
         <v>279</v>
@@ -6043,13 +6042,13 @@
         <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P29" t="s">
         <v>751</v>
       </c>
       <c r="Q29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>282</v>
@@ -6081,13 +6080,13 @@
         <v>270108</v>
       </c>
       <c r="H30" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I30">
         <v>270108010</v>
       </c>
       <c r="J30" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K30" t="s">
         <v>285</v>
@@ -6105,7 +6104,7 @@
         <v>752</v>
       </c>
       <c r="P30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Q30" t="s">
         <v>751</v>
@@ -6140,13 +6139,13 @@
         <v>270108</v>
       </c>
       <c r="H31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I31">
         <v>270108010</v>
       </c>
       <c r="J31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K31" t="s">
         <v>291</v>
@@ -6164,10 +6163,10 @@
         <v>753</v>
       </c>
       <c r="P31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R31" s="3">
         <v>228216112</v>
@@ -6199,13 +6198,13 @@
         <v>270108</v>
       </c>
       <c r="H32" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I32">
         <v>270108010</v>
       </c>
       <c r="J32" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K32" t="s">
         <v>296</v>
@@ -6223,10 +6222,10 @@
         <v>753</v>
       </c>
       <c r="P32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>299</v>
@@ -6258,13 +6257,13 @@
         <v>270108</v>
       </c>
       <c r="H33" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I33">
         <v>270108010</v>
       </c>
       <c r="J33" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K33" t="s">
         <v>302</v>
@@ -6282,10 +6281,10 @@
         <v>753</v>
       </c>
       <c r="P33" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q33" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>305</v>
@@ -6317,13 +6316,13 @@
         <v>270108</v>
       </c>
       <c r="H34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I34">
         <v>270108010</v>
       </c>
       <c r="J34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K34" t="s">
         <v>308</v>
@@ -6338,22 +6337,22 @@
         <v>5</v>
       </c>
       <c r="O34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P34" t="s">
         <v>751</v>
       </c>
       <c r="Q34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>311</v>
       </c>
       <c r="S34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T34" t="s">
         <v>1061</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -6379,13 +6378,13 @@
         <v>270108</v>
       </c>
       <c r="H35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I35">
         <v>270108010</v>
       </c>
       <c r="J35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K35" t="s">
         <v>313</v>
@@ -6403,10 +6402,10 @@
         <v>753</v>
       </c>
       <c r="P35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>316</v>
@@ -6438,13 +6437,13 @@
         <v>270108</v>
       </c>
       <c r="H36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I36">
         <v>270108010</v>
       </c>
       <c r="J36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K36" t="s">
         <v>319</v>
@@ -6459,13 +6458,13 @@
         <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P36" t="s">
         <v>751</v>
       </c>
       <c r="Q36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>322</v>
@@ -6497,13 +6496,13 @@
         <v>270108</v>
       </c>
       <c r="H37" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I37">
         <v>270108010</v>
       </c>
       <c r="J37" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K37" t="s">
         <v>325</v>
@@ -6518,13 +6517,13 @@
         <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P37" t="s">
         <v>751</v>
       </c>
       <c r="Q37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>328</v>
@@ -6556,13 +6555,13 @@
         <v>270108</v>
       </c>
       <c r="H38" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I38">
         <v>270108010</v>
       </c>
       <c r="J38" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K38" t="s">
         <v>331</v>
@@ -6580,7 +6579,7 @@
         <v>752</v>
       </c>
       <c r="P38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q38" t="s">
         <v>751</v>
@@ -6615,19 +6614,19 @@
         <v>270108</v>
       </c>
       <c r="H39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I39">
         <v>270108010</v>
       </c>
       <c r="J39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K39" t="s">
         <v>337</v>
       </c>
       <c r="L39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M39" t="s">
         <v>338</v>
@@ -6639,10 +6638,10 @@
         <v>753</v>
       </c>
       <c r="P39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>339</v>
@@ -6674,13 +6673,13 @@
         <v>270108</v>
       </c>
       <c r="H40" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I40">
         <v>270108010</v>
       </c>
       <c r="J40" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K40" t="s">
         <v>342</v>
@@ -6698,10 +6697,10 @@
         <v>753</v>
       </c>
       <c r="P40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>345</v>
@@ -6733,19 +6732,19 @@
         <v>270108</v>
       </c>
       <c r="H41" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I41">
         <v>270108010</v>
       </c>
       <c r="J41" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K41" t="s">
         <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M41" t="s">
         <v>349</v>
@@ -6757,7 +6756,7 @@
         <v>752</v>
       </c>
       <c r="P41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q41" t="s">
         <v>751</v>
@@ -6792,13 +6791,13 @@
         <v>270108</v>
       </c>
       <c r="H42" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I42">
         <v>270108010</v>
       </c>
       <c r="J42" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K42" t="s">
         <v>353</v>
@@ -6816,10 +6815,10 @@
         <v>753</v>
       </c>
       <c r="P42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>356</v>
@@ -6851,13 +6850,13 @@
         <v>270108</v>
       </c>
       <c r="H43" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I43">
         <v>270108010</v>
       </c>
       <c r="J43" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K43" t="s">
         <v>359</v>
@@ -6872,13 +6871,13 @@
         <v>5</v>
       </c>
       <c r="O43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P43" t="s">
         <v>751</v>
       </c>
       <c r="Q43" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>362</v>
@@ -6910,13 +6909,13 @@
         <v>270108</v>
       </c>
       <c r="H44" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I44">
         <v>270108010</v>
       </c>
       <c r="J44" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K44" t="s">
         <v>365</v>
@@ -6931,13 +6930,13 @@
         <v>5</v>
       </c>
       <c r="O44" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P44" t="s">
         <v>751</v>
       </c>
       <c r="Q44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>368</v>
@@ -6969,13 +6968,13 @@
         <v>270108</v>
       </c>
       <c r="H45" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I45">
         <v>270108010</v>
       </c>
       <c r="J45" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K45" t="s">
         <v>371</v>
@@ -6990,13 +6989,13 @@
         <v>5</v>
       </c>
       <c r="O45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P45" t="s">
         <v>751</v>
       </c>
       <c r="Q45" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>374</v>
@@ -7028,13 +7027,13 @@
         <v>270108</v>
       </c>
       <c r="H46" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I46">
         <v>270108010</v>
       </c>
       <c r="J46" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K46" t="s">
         <v>377</v>
@@ -7049,13 +7048,13 @@
         <v>5</v>
       </c>
       <c r="O46" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P46" t="s">
         <v>751</v>
       </c>
       <c r="Q46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>380</v>
@@ -7087,13 +7086,13 @@
         <v>270108</v>
       </c>
       <c r="H47" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I47">
         <v>270108010</v>
       </c>
       <c r="J47" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K47" t="s">
         <v>383</v>
@@ -7111,10 +7110,10 @@
         <v>753</v>
       </c>
       <c r="P47" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q47" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>386</v>
@@ -7146,13 +7145,13 @@
         <v>270108</v>
       </c>
       <c r="H48" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I48">
         <v>270108010</v>
       </c>
       <c r="J48" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K48" t="s">
         <v>389</v>
@@ -7167,13 +7166,13 @@
         <v>5</v>
       </c>
       <c r="O48" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P48" t="s">
         <v>751</v>
       </c>
       <c r="Q48" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>392</v>
@@ -7205,13 +7204,13 @@
         <v>270108</v>
       </c>
       <c r="H49" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I49">
         <v>270108010</v>
       </c>
       <c r="J49" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K49" t="s">
         <v>395</v>
@@ -7229,10 +7228,10 @@
         <v>753</v>
       </c>
       <c r="P49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R49" s="3">
         <v>225054800</v>
@@ -7264,13 +7263,13 @@
         <v>270108</v>
       </c>
       <c r="H50" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I50">
         <v>270108010</v>
       </c>
       <c r="J50" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K50" t="s">
         <v>400</v>
@@ -7285,13 +7284,13 @@
         <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P50" t="s">
         <v>751</v>
       </c>
       <c r="Q50" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>403</v>
@@ -7323,13 +7322,13 @@
         <v>270108</v>
       </c>
       <c r="H51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I51">
         <v>270108010</v>
       </c>
       <c r="J51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K51" t="s">
         <v>406</v>
@@ -7347,10 +7346,10 @@
         <v>753</v>
       </c>
       <c r="P51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Q51" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>409</v>
@@ -7382,13 +7381,13 @@
         <v>270108</v>
       </c>
       <c r="H52" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I52">
         <v>270108010</v>
       </c>
       <c r="J52" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K52" t="s">
         <v>412</v>
@@ -7403,13 +7402,13 @@
         <v>5</v>
       </c>
       <c r="O52" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P52" t="s">
         <v>751</v>
       </c>
       <c r="Q52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>415</v>
@@ -7441,13 +7440,13 @@
         <v>270108</v>
       </c>
       <c r="H53" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I53">
         <v>270108010</v>
       </c>
       <c r="J53" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K53" t="s">
         <v>418</v>
@@ -7462,13 +7461,13 @@
         <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P53" t="s">
         <v>751</v>
       </c>
       <c r="Q53" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>421</v>
@@ -7500,13 +7499,13 @@
         <v>270108</v>
       </c>
       <c r="H54" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I54">
         <v>270108010</v>
       </c>
       <c r="J54" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K54" t="s">
         <v>424</v>
@@ -7521,16 +7520,16 @@
         <v>5</v>
       </c>
       <c r="O54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P54" t="s">
         <v>751</v>
       </c>
       <c r="Q54" t="s">
+        <v>804</v>
+      </c>
+      <c r="R54" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="S54" t="s">
         <v>427</v>
@@ -7559,13 +7558,13 @@
         <v>270108</v>
       </c>
       <c r="H55" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I55">
         <v>270108010</v>
       </c>
       <c r="J55" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K55" t="s">
         <v>429</v>
@@ -7580,13 +7579,13 @@
         <v>5</v>
       </c>
       <c r="O55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P55" t="s">
         <v>751</v>
       </c>
       <c r="Q55" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>432</v>
@@ -7618,13 +7617,13 @@
         <v>270108</v>
       </c>
       <c r="H56" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I56">
         <v>270108010</v>
       </c>
       <c r="J56" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K56" t="s">
         <v>435</v>
@@ -7642,10 +7641,10 @@
         <v>753</v>
       </c>
       <c r="P56" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>438</v>
@@ -7677,19 +7676,19 @@
         <v>270108</v>
       </c>
       <c r="H57" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I57">
         <v>270108010</v>
       </c>
       <c r="J57" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K57" t="s">
         <v>441</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M57" t="s">
         <v>442</v>
@@ -7698,13 +7697,13 @@
         <v>6</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>443</v>
@@ -7736,13 +7735,13 @@
         <v>270108</v>
       </c>
       <c r="H58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I58">
         <v>270108010</v>
       </c>
       <c r="J58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K58" t="s">
         <v>446</v>
@@ -7757,13 +7756,13 @@
         <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P58" t="s">
         <v>751</v>
       </c>
       <c r="Q58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R58" s="3">
         <v>56940751488</v>
@@ -7780,7 +7779,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D59">
         <v>6101</v>
@@ -7795,13 +7794,13 @@
         <v>270108</v>
       </c>
       <c r="H59" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I59">
         <v>270108010</v>
       </c>
       <c r="J59" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K59" t="s">
         <v>450</v>
@@ -7819,10 +7818,10 @@
         <v>753</v>
       </c>
       <c r="P59" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q59" t="s">
         <v>809</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>810</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>453</v>
@@ -7839,7 +7838,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D60">
         <v>6301</v>
@@ -7854,19 +7853,19 @@
         <v>270108</v>
       </c>
       <c r="H60" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I60">
         <v>270108010</v>
       </c>
       <c r="J60" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K60" t="s">
         <v>456</v>
       </c>
       <c r="L60" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M60" t="s">
         <v>457</v>
@@ -7875,13 +7874,13 @@
         <v>5</v>
       </c>
       <c r="O60" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P60" t="s">
         <v>751</v>
       </c>
       <c r="Q60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>458</v>
@@ -7898,7 +7897,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D61">
         <v>6115</v>
@@ -7913,13 +7912,13 @@
         <v>270108</v>
       </c>
       <c r="H61" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I61">
         <v>270108010</v>
       </c>
       <c r="J61" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K61" t="s">
         <v>461</v>
@@ -7937,10 +7936,10 @@
         <v>753</v>
       </c>
       <c r="P61" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q61" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>464</v>
@@ -7957,7 +7956,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D62">
         <v>6201</v>
@@ -7972,19 +7971,19 @@
         <v>270108</v>
       </c>
       <c r="H62" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I62">
         <v>270108010</v>
       </c>
       <c r="J62" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K62" t="s">
         <v>467</v>
       </c>
       <c r="L62" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M62" t="s">
         <v>468</v>
@@ -7996,10 +7995,10 @@
         <v>753</v>
       </c>
       <c r="P62" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q62" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>469</v>
@@ -8016,7 +8015,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D63">
         <v>6117</v>
@@ -8031,19 +8030,19 @@
         <v>270108</v>
       </c>
       <c r="H63" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I63">
         <v>270108010</v>
       </c>
       <c r="J63" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K63" t="s">
         <v>472</v>
       </c>
       <c r="L63" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M63" t="s">
         <v>473</v>
@@ -8055,10 +8054,10 @@
         <v>753</v>
       </c>
       <c r="P63" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q63" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>474</v>
@@ -8075,13 +8074,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D64">
         <v>6310</v>
       </c>
       <c r="E64" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F64" t="s">
         <v>476</v>
@@ -8090,13 +8089,13 @@
         <v>270108</v>
       </c>
       <c r="H64" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I64">
         <v>270108010</v>
       </c>
       <c r="J64" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K64" t="s">
         <v>477</v>
@@ -8114,7 +8113,7 @@
         <v>752</v>
       </c>
       <c r="P64" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q64" t="s">
         <v>751</v>
@@ -8149,13 +8148,13 @@
         <v>270108</v>
       </c>
       <c r="H65" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I65">
         <v>270108010</v>
       </c>
       <c r="J65" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K65" t="s">
         <v>483</v>
@@ -8170,16 +8169,16 @@
         <v>5</v>
       </c>
       <c r="O65" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P65" t="s">
         <v>751</v>
       </c>
       <c r="Q65" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S65" t="s">
         <v>486</v>
@@ -8208,13 +8207,13 @@
         <v>270108</v>
       </c>
       <c r="H66" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I66">
         <v>270108010</v>
       </c>
       <c r="J66" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K66" t="s">
         <v>488</v>
@@ -8229,16 +8228,16 @@
         <v>5</v>
       </c>
       <c r="O66" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P66" t="s">
         <v>751</v>
       </c>
       <c r="Q66" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S66" t="s">
         <v>491</v>
@@ -8267,19 +8266,19 @@
         <v>270108</v>
       </c>
       <c r="H67" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I67">
         <v>270108010</v>
       </c>
       <c r="J67" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K67" t="s">
         <v>493</v>
       </c>
       <c r="L67" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M67" t="s">
         <v>494</v>
@@ -8291,13 +8290,13 @@
         <v>753</v>
       </c>
       <c r="P67" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Q67" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S67" t="s">
         <v>495</v>
@@ -8326,13 +8325,13 @@
         <v>270108</v>
       </c>
       <c r="H68" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I68">
         <v>270108010</v>
       </c>
       <c r="J68" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K68" t="s">
         <v>497</v>
@@ -8350,13 +8349,13 @@
         <v>753</v>
       </c>
       <c r="P68" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q68" t="s">
+        <v>817</v>
+      </c>
+      <c r="R68" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="S68" t="s">
         <v>500</v>
@@ -8385,13 +8384,13 @@
         <v>270108</v>
       </c>
       <c r="H69" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I69">
         <v>270108010</v>
       </c>
       <c r="J69" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K69" t="s">
         <v>502</v>
@@ -8409,13 +8408,13 @@
         <v>753</v>
       </c>
       <c r="P69" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q69" t="s">
         <v>821</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>823</v>
       </c>
       <c r="S69" t="s">
         <v>505</v>
@@ -8444,13 +8443,13 @@
         <v>270108</v>
       </c>
       <c r="H70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I70">
         <v>270108010</v>
       </c>
       <c r="J70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K70" t="s">
         <v>507</v>
@@ -8468,10 +8467,10 @@
         <v>753</v>
       </c>
       <c r="P70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>510</v>
@@ -8503,13 +8502,13 @@
         <v>270108</v>
       </c>
       <c r="H71" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I71">
         <v>270108010</v>
       </c>
       <c r="J71" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K71" t="s">
         <v>513</v>
@@ -8527,13 +8526,13 @@
         <v>753</v>
       </c>
       <c r="P71" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q71" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S71" t="s">
         <v>516</v>
@@ -8562,13 +8561,13 @@
         <v>270108</v>
       </c>
       <c r="H72" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I72">
         <v>270108010</v>
       </c>
       <c r="J72" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K72" t="s">
         <v>518</v>
@@ -8583,13 +8582,13 @@
         <v>5</v>
       </c>
       <c r="O72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P72" t="s">
         <v>751</v>
       </c>
       <c r="Q72" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>521</v>
@@ -8621,19 +8620,19 @@
         <v>270108</v>
       </c>
       <c r="H73" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I73">
         <v>270108010</v>
       </c>
       <c r="J73" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K73" t="s">
         <v>524</v>
       </c>
       <c r="L73" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M73" t="s">
         <v>525</v>
@@ -8645,10 +8644,10 @@
         <v>753</v>
       </c>
       <c r="P73" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q73" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>526</v>
@@ -8680,13 +8679,13 @@
         <v>270108</v>
       </c>
       <c r="H74" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I74">
         <v>270108010</v>
       </c>
       <c r="J74" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K74" t="s">
         <v>529</v>
@@ -8704,7 +8703,7 @@
         <v>753</v>
       </c>
       <c r="P74" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R74" s="3">
         <v>56990160625</v>
@@ -8736,13 +8735,13 @@
         <v>270108</v>
       </c>
       <c r="H75" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I75">
         <v>270108010</v>
       </c>
       <c r="J75" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K75" t="s">
         <v>534</v>
@@ -8760,10 +8759,10 @@
         <v>753</v>
       </c>
       <c r="P75" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>537</v>
@@ -8795,13 +8794,13 @@
         <v>270108</v>
       </c>
       <c r="H76" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I76">
         <v>270108010</v>
       </c>
       <c r="J76" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K76" t="s">
         <v>540</v>
@@ -8819,10 +8818,10 @@
         <v>753</v>
       </c>
       <c r="P76" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q76" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>543</v>
@@ -8854,13 +8853,13 @@
         <v>270108</v>
       </c>
       <c r="H77" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I77">
         <v>270108010</v>
       </c>
       <c r="J77" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K77" t="s">
         <v>546</v>
@@ -8878,10 +8877,10 @@
         <v>753</v>
       </c>
       <c r="P77" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q77" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>549</v>
@@ -8913,13 +8912,13 @@
         <v>270108</v>
       </c>
       <c r="H78" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I78">
         <v>270108010</v>
       </c>
       <c r="J78" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K78" t="s">
         <v>552</v>
@@ -8937,10 +8936,10 @@
         <v>753</v>
       </c>
       <c r="P78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>555</v>
@@ -8972,13 +8971,13 @@
         <v>270108</v>
       </c>
       <c r="H79" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I79">
         <v>270108010</v>
       </c>
       <c r="J79" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K79" t="s">
         <v>558</v>
@@ -8996,10 +8995,10 @@
         <v>753</v>
       </c>
       <c r="P79" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Q79" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>561</v>
@@ -9031,13 +9030,13 @@
         <v>270108</v>
       </c>
       <c r="H80" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I80">
         <v>270108010</v>
       </c>
       <c r="J80" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K80" t="s">
         <v>564</v>
@@ -9055,10 +9054,10 @@
         <v>753</v>
       </c>
       <c r="P80" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q80" t="s">
         <v>830</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>831</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>567</v>
@@ -9090,13 +9089,13 @@
         <v>270108</v>
       </c>
       <c r="H81" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I81">
         <v>270108010</v>
       </c>
       <c r="J81" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K81" t="s">
         <v>570</v>
@@ -9114,10 +9113,10 @@
         <v>753</v>
       </c>
       <c r="P81" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q81" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>573</v>
@@ -9149,13 +9148,13 @@
         <v>270108</v>
       </c>
       <c r="H82" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I82">
         <v>270108010</v>
       </c>
       <c r="J82" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K82" t="s">
         <v>576</v>
@@ -9173,10 +9172,10 @@
         <v>753</v>
       </c>
       <c r="P82" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q82" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>579</v>
@@ -9208,13 +9207,13 @@
         <v>270108</v>
       </c>
       <c r="H83" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I83">
         <v>270108010</v>
       </c>
       <c r="J83" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K83" t="s">
         <v>582</v>
@@ -9232,10 +9231,10 @@
         <v>753</v>
       </c>
       <c r="P83" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q83" t="s">
         <v>833</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>834</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>585</v>
@@ -9267,13 +9266,13 @@
         <v>270108</v>
       </c>
       <c r="H84" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I84">
         <v>270108010</v>
       </c>
       <c r="J84" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K84" t="s">
         <v>588</v>
@@ -9291,10 +9290,10 @@
         <v>753</v>
       </c>
       <c r="P84" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q84" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>591</v>
@@ -9326,13 +9325,13 @@
         <v>270108</v>
       </c>
       <c r="H85" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I85">
         <v>270108010</v>
       </c>
       <c r="J85" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K85" t="s">
         <v>594</v>
@@ -9350,10 +9349,10 @@
         <v>753</v>
       </c>
       <c r="P85" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="Q85" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>597</v>
@@ -9385,13 +9384,13 @@
         <v>270108</v>
       </c>
       <c r="H86" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I86">
         <v>270108010</v>
       </c>
       <c r="J86" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K86" t="s">
         <v>600</v>
@@ -9409,10 +9408,10 @@
         <v>753</v>
       </c>
       <c r="P86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="Q86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>603</v>
@@ -9444,19 +9443,19 @@
         <v>270108</v>
       </c>
       <c r="H87" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I87">
         <v>270108010</v>
       </c>
       <c r="J87" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K87" t="s">
         <v>606</v>
       </c>
       <c r="L87" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M87" t="s">
         <v>607</v>
@@ -9468,10 +9467,10 @@
         <v>753</v>
       </c>
       <c r="P87" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q87" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>608</v>
@@ -9494,7 +9493,7 @@
         <v>8207</v>
       </c>
       <c r="E88" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F88" t="s">
         <v>610</v>
@@ -9503,13 +9502,13 @@
         <v>270108</v>
       </c>
       <c r="H88" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I88">
         <v>270108010</v>
       </c>
       <c r="J88" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K88" t="s">
         <v>611</v>
@@ -9527,10 +9526,10 @@
         <v>753</v>
       </c>
       <c r="P88" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q88" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>614</v>
@@ -9547,7 +9546,7 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D89">
         <v>9201</v>
@@ -9562,19 +9561,19 @@
         <v>270108</v>
       </c>
       <c r="H89" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I89">
         <v>270108010</v>
       </c>
       <c r="J89" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K89" t="s">
         <v>617</v>
       </c>
       <c r="L89" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M89" t="s">
         <v>618</v>
@@ -9583,13 +9582,13 @@
         <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R89" s="3">
         <v>452464436</v>
@@ -9606,7 +9605,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D90">
         <v>9211</v>
@@ -9621,19 +9620,19 @@
         <v>270108</v>
       </c>
       <c r="H90" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I90">
         <v>270108010</v>
       </c>
       <c r="J90" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K90" t="s">
         <v>621</v>
       </c>
       <c r="L90" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M90" t="s">
         <v>622</v>
@@ -9642,22 +9641,22 @@
         <v>3</v>
       </c>
       <c r="O90" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P90" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q90" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>623</v>
       </c>
       <c r="S90" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T90" t="s">
         <v>1063</v>
-      </c>
-      <c r="T90" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -9668,7 +9667,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D91">
         <v>9108</v>
@@ -9683,19 +9682,19 @@
         <v>270108</v>
       </c>
       <c r="H91" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I91">
         <v>270108010</v>
       </c>
       <c r="J91" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K91" t="s">
         <v>625</v>
       </c>
       <c r="L91" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M91" t="s">
         <v>626</v>
@@ -9704,13 +9703,13 @@
         <v>3</v>
       </c>
       <c r="O91" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q91" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>627</v>
@@ -9727,7 +9726,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D92">
         <v>9101</v>
@@ -9742,19 +9741,19 @@
         <v>270108</v>
       </c>
       <c r="H92" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I92">
         <v>270108010</v>
       </c>
       <c r="J92" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K92" t="s">
         <v>630</v>
       </c>
       <c r="L92" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M92" t="s">
         <v>631</v>
@@ -9763,13 +9762,13 @@
         <v>5</v>
       </c>
       <c r="O92" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P92" t="s">
         <v>751</v>
       </c>
       <c r="Q92" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>632</v>
@@ -9786,7 +9785,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D93">
         <v>9111</v>
@@ -9801,19 +9800,19 @@
         <v>270108</v>
       </c>
       <c r="H93" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I93">
         <v>270108010</v>
       </c>
       <c r="J93" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K93" t="s">
         <v>635</v>
       </c>
       <c r="L93" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M93" t="s">
         <v>636</v>
@@ -9822,13 +9821,13 @@
         <v>5</v>
       </c>
       <c r="O93" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P93" t="s">
         <v>751</v>
       </c>
       <c r="Q93" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R93" s="3">
         <v>56975302498</v>
@@ -9845,7 +9844,7 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D94">
         <v>9102</v>
@@ -9860,19 +9859,19 @@
         <v>270108</v>
       </c>
       <c r="H94" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I94">
         <v>270108010</v>
       </c>
       <c r="J94" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K94" t="s">
         <v>639</v>
       </c>
       <c r="L94" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M94" t="s">
         <v>640</v>
@@ -9881,13 +9880,13 @@
         <v>3</v>
       </c>
       <c r="O94" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P94" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q94" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>641</v>
@@ -9904,7 +9903,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D95">
         <v>9105</v>
@@ -9919,19 +9918,19 @@
         <v>270108</v>
       </c>
       <c r="H95" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I95">
         <v>270108010</v>
       </c>
       <c r="J95" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K95" t="s">
         <v>644</v>
       </c>
       <c r="L95" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M95" t="s">
         <v>645</v>
@@ -9940,13 +9939,13 @@
         <v>3</v>
       </c>
       <c r="O95" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P95" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="Q95" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>646</v>
@@ -9963,7 +9962,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D96">
         <v>9120</v>
@@ -9978,19 +9977,19 @@
         <v>270108</v>
       </c>
       <c r="H96" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I96">
         <v>270108010</v>
       </c>
       <c r="J96" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K96" t="s">
         <v>649</v>
       </c>
       <c r="L96" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M96" t="s">
         <v>650</v>
@@ -9999,13 +9998,13 @@
         <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P96" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q96" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>651</v>
@@ -10022,7 +10021,7 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D97">
         <v>9112</v>
@@ -10037,34 +10036,34 @@
         <v>270108</v>
       </c>
       <c r="H97" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I97">
         <v>270108010</v>
       </c>
       <c r="J97" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K97" t="s">
         <v>654</v>
       </c>
       <c r="L97" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M97" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N97">
         <v>6</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R97" s="3">
         <v>452590813</v>
@@ -10096,19 +10095,19 @@
         <v>270108</v>
       </c>
       <c r="H98" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I98">
         <v>270108010</v>
       </c>
       <c r="J98" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K98" t="s">
         <v>657</v>
       </c>
       <c r="L98" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M98" t="s">
         <v>658</v>
@@ -10120,10 +10119,10 @@
         <v>753</v>
       </c>
       <c r="P98" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>659</v>
@@ -10155,13 +10154,13 @@
         <v>270108</v>
       </c>
       <c r="H99" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I99">
         <v>270108010</v>
       </c>
       <c r="J99" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K99" t="s">
         <v>662</v>
@@ -10179,7 +10178,7 @@
         <v>752</v>
       </c>
       <c r="P99" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Q99" t="s">
         <v>751</v>
@@ -10214,13 +10213,13 @@
         <v>270108</v>
       </c>
       <c r="H100" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I100">
         <v>270108010</v>
       </c>
       <c r="J100" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K100" t="s">
         <v>668</v>
@@ -10238,7 +10237,7 @@
         <v>752</v>
       </c>
       <c r="P100" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q100" t="s">
         <v>751</v>
@@ -10273,13 +10272,13 @@
         <v>270108</v>
       </c>
       <c r="H101" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I101">
         <v>270108010</v>
       </c>
       <c r="J101" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K101" t="s">
         <v>674</v>
@@ -10297,10 +10296,10 @@
         <v>753</v>
       </c>
       <c r="P101" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q101" t="s">
         <v>848</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>849</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>677</v>
@@ -10332,13 +10331,13 @@
         <v>270108</v>
       </c>
       <c r="H102" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I102">
         <v>270108010</v>
       </c>
       <c r="J102" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K102" t="s">
         <v>680</v>
@@ -10356,7 +10355,7 @@
         <v>752</v>
       </c>
       <c r="P102" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Q102" t="s">
         <v>751</v>
@@ -10391,13 +10390,13 @@
         <v>270108</v>
       </c>
       <c r="H103" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I103">
         <v>270108010</v>
       </c>
       <c r="J103" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K103" t="s">
         <v>686</v>
@@ -10415,7 +10414,7 @@
         <v>752</v>
       </c>
       <c r="P103" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q103" t="s">
         <v>751</v>
@@ -10450,13 +10449,13 @@
         <v>270108</v>
       </c>
       <c r="H104" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I104">
         <v>270108010</v>
       </c>
       <c r="J104" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K104" t="s">
         <v>692</v>
@@ -10471,13 +10470,13 @@
         <v>5</v>
       </c>
       <c r="O104" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P104" t="s">
         <v>751</v>
       </c>
       <c r="Q104" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R104" s="3">
         <v>642213056</v>
@@ -10509,13 +10508,13 @@
         <v>270108</v>
       </c>
       <c r="H105" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I105">
         <v>270108010</v>
       </c>
       <c r="J105" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K105" t="s">
         <v>697</v>
@@ -10524,7 +10523,7 @@
         <v>111</v>
       </c>
       <c r="M105" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -10533,13 +10532,13 @@
         <v>753</v>
       </c>
       <c r="P105" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q105" t="s">
+        <v>852</v>
+      </c>
+      <c r="R105" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="R105" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="S105" t="s">
         <v>698</v>
@@ -10568,19 +10567,19 @@
         <v>270108</v>
       </c>
       <c r="H106" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I106">
         <v>270108010</v>
       </c>
       <c r="J106" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K106" t="s">
         <v>700</v>
       </c>
       <c r="L106" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M106" t="s">
         <v>701</v>
@@ -10589,13 +10588,13 @@
         <v>5</v>
       </c>
       <c r="O106" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P106" t="s">
         <v>751</v>
       </c>
       <c r="Q106" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R106" s="3" t="s">
         <v>702</v>
@@ -10627,13 +10626,13 @@
         <v>270108</v>
       </c>
       <c r="H107" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I107">
         <v>270108010</v>
       </c>
       <c r="J107" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K107" t="s">
         <v>705</v>
@@ -10648,13 +10647,13 @@
         <v>5</v>
       </c>
       <c r="O107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P107" t="s">
         <v>751</v>
       </c>
       <c r="Q107" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R107" s="3" t="s">
         <v>708</v>
@@ -10686,13 +10685,13 @@
         <v>270108</v>
       </c>
       <c r="H108" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I108">
         <v>270108010</v>
       </c>
       <c r="J108" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K108" t="s">
         <v>711</v>
@@ -10707,13 +10706,13 @@
         <v>5</v>
       </c>
       <c r="O108" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P108" t="s">
         <v>751</v>
       </c>
       <c r="Q108" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R108" s="3" t="s">
         <v>714</v>
@@ -10745,13 +10744,13 @@
         <v>270108</v>
       </c>
       <c r="H109" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I109">
         <v>270108010</v>
       </c>
       <c r="J109" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K109" t="s">
         <v>717</v>
@@ -10766,13 +10765,13 @@
         <v>6</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>720</v>
@@ -10795,7 +10794,7 @@
         <v>11101</v>
       </c>
       <c r="E110" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F110" t="s">
         <v>722</v>
@@ -10804,22 +10803,22 @@
         <v>270108</v>
       </c>
       <c r="H110" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I110">
         <v>270108010</v>
       </c>
       <c r="J110" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K110" t="s">
         <v>723</v>
       </c>
       <c r="L110" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M110" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10828,13 +10827,13 @@
         <v>753</v>
       </c>
       <c r="P110" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q110" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S110" t="s">
         <v>724</v>
@@ -10854,7 +10853,7 @@
         <v>11201</v>
       </c>
       <c r="E111" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F111" t="s">
         <v>725</v>
@@ -10863,19 +10862,19 @@
         <v>270108</v>
       </c>
       <c r="H111" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I111">
         <v>270108010</v>
       </c>
       <c r="J111" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K111" t="s">
         <v>726</v>
       </c>
       <c r="L111" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M111" t="s">
         <v>727</v>
@@ -10887,10 +10886,10 @@
         <v>753</v>
       </c>
       <c r="P111" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q111" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R111" s="3" t="s">
         <v>728</v>
@@ -10922,13 +10921,13 @@
         <v>270108</v>
       </c>
       <c r="H112" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I112">
         <v>270108010</v>
       </c>
       <c r="J112" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K112" t="s">
         <v>731</v>
@@ -10943,13 +10942,13 @@
         <v>5</v>
       </c>
       <c r="O112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P112" t="s">
         <v>734</v>
       </c>
       <c r="Q112" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R112" s="3" t="s">
         <v>735</v>
@@ -10981,13 +10980,13 @@
         <v>270108</v>
       </c>
       <c r="H113" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I113">
         <v>270108010</v>
       </c>
       <c r="J113" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K113" t="s">
         <v>738</v>
@@ -11005,10 +11004,10 @@
         <v>753</v>
       </c>
       <c r="P113" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q113" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>740</v>
@@ -11040,13 +11039,13 @@
         <v>270108</v>
       </c>
       <c r="H114" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I114">
         <v>270108010</v>
       </c>
       <c r="J114" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K114" t="s">
         <v>743</v>
@@ -11064,10 +11063,10 @@
         <v>753</v>
       </c>
       <c r="P114" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q114" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R114" s="3" t="s">
         <v>746</v>
@@ -11107,49 +11106,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -11157,46 +11156,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>1098</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>1099</v>
       </c>
       <c r="M2" s="9">
         <v>44356</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -11212,7 +11211,7 @@
   <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E1" sqref="E1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11229,20 +11228,20 @@
         <v>749</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1066</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11259,10 +11258,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11273,16 +11272,16 @@
         <v>15102</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11299,10 +11298,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11319,10 +11318,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11339,10 +11338,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11353,16 +11352,16 @@
         <v>1404</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11373,16 +11372,16 @@
         <v>1402</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11393,16 +11392,16 @@
         <v>1403</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11413,16 +11412,16 @@
         <v>1405</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11439,10 +11438,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11453,16 +11452,16 @@
         <v>2104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11479,10 +11478,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11493,16 +11492,16 @@
         <v>2102</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11519,10 +11518,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -11533,16 +11532,16 @@
         <v>2203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11553,16 +11552,16 @@
         <v>2202</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11579,10 +11578,10 @@
         <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11593,16 +11592,16 @@
         <v>2302</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11619,10 +11618,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11633,16 +11632,16 @@
         <v>3102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11653,16 +11652,16 @@
         <v>3103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -11679,10 +11678,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11693,16 +11692,16 @@
         <v>3302</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11713,16 +11712,16 @@
         <v>3303</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -11733,16 +11732,16 @@
         <v>3304</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11759,10 +11758,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11773,16 +11772,16 @@
         <v>3202</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11793,16 +11792,16 @@
         <v>4101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11813,16 +11812,16 @@
         <v>4106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11833,16 +11832,16 @@
         <v>4105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11859,10 +11858,10 @@
         <v>36</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -11873,16 +11872,16 @@
         <v>4204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -11893,16 +11892,16 @@
         <v>4202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -11913,16 +11912,16 @@
         <v>4203</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11939,10 +11938,10 @@
         <v>40</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11953,16 +11952,16 @@
         <v>4303</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11973,16 +11972,16 @@
         <v>4302</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11993,16 +11992,16 @@
         <v>4305</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12013,16 +12012,16 @@
         <v>4304</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12039,10 +12038,10 @@
         <v>45</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12053,16 +12052,16 @@
         <v>4103</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12073,16 +12072,16 @@
         <v>4104</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12099,10 +12098,10 @@
         <v>48</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12119,10 +12118,10 @@
         <v>49</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12133,16 +12132,16 @@
         <v>5705</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -12153,16 +12152,16 @@
         <v>5706</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -12173,16 +12172,16 @@
         <v>5704</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -12199,10 +12198,10 @@
         <v>53</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -12213,16 +12212,16 @@
         <v>5304</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -12233,16 +12232,16 @@
         <v>5302</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -12253,16 +12252,16 @@
         <v>5303</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -12273,16 +12272,16 @@
         <v>5402</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -12293,16 +12292,16 @@
         <v>5404</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -12319,10 +12318,10 @@
         <v>59</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -12339,10 +12338,10 @@
         <v>61</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -12353,16 +12352,16 @@
         <v>5503</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -12373,16 +12372,16 @@
         <v>5506</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -12393,16 +12392,16 @@
         <v>5504</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -12419,10 +12418,10 @@
         <v>64</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -12433,16 +12432,16 @@
         <v>5105</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -12453,16 +12452,16 @@
         <v>5107</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -12479,10 +12478,10 @@
         <v>67</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -12493,16 +12492,16 @@
         <v>5801</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -12519,10 +12518,10 @@
         <v>69</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -12533,16 +12532,16 @@
         <v>5702</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -12559,10 +12558,10 @@
         <v>71</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -12573,16 +12572,16 @@
         <v>5606</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -12593,16 +12592,16 @@
         <v>5603</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -12613,16 +12612,16 @@
         <v>5605</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -12633,16 +12632,16 @@
         <v>5604</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -12653,16 +12652,16 @@
         <v>5602</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -12679,10 +12678,10 @@
         <v>78</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -12699,10 +12698,10 @@
         <v>127</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,16 +12712,16 @@
         <v>5501</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -12739,10 +12738,10 @@
         <v>81</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -12759,10 +12758,10 @@
         <v>82</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -12779,10 +12778,10 @@
         <v>83</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -12793,16 +12792,16 @@
         <v>13504</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -12813,16 +12812,16 @@
         <v>13505</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -12839,10 +12838,10 @@
         <v>86</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -12859,10 +12858,10 @@
         <v>87</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -12879,10 +12878,10 @@
         <v>88</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -12893,16 +12892,16 @@
         <v>13404</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -12919,10 +12918,10 @@
         <v>90</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -12939,10 +12938,10 @@
         <v>91</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -12953,16 +12952,16 @@
         <v>13107</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -12976,13 +12975,13 @@
         <v>38</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -12999,10 +12998,10 @@
         <v>93</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -13019,10 +13018,10 @@
         <v>94</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -13039,10 +13038,10 @@
         <v>95</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -13059,10 +13058,10 @@
         <v>96</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -13073,16 +13072,16 @@
         <v>13605</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -13099,10 +13098,10 @@
         <v>98</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -13113,16 +13112,16 @@
         <v>13102</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -13139,10 +13138,10 @@
         <v>100</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -13153,16 +13152,16 @@
         <v>13302</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>101</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -13173,16 +13172,16 @@
         <v>13303</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -13199,10 +13198,10 @@
         <v>104</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -13213,16 +13212,16 @@
         <v>13130</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>105</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -13239,10 +13238,10 @@
         <v>106</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -13253,16 +13252,16 @@
         <v>13202</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -13273,16 +13272,16 @@
         <v>13203</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -13299,10 +13298,10 @@
         <v>110</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -13319,10 +13318,10 @@
         <v>111</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -13339,10 +13338,10 @@
         <v>112</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -13353,16 +13352,16 @@
         <v>13120</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -13373,16 +13372,16 @@
         <v>13113</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -13399,10 +13398,10 @@
         <v>128</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -13416,13 +13415,13 @@
         <v>51</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -13436,13 +13435,13 @@
         <v>52</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -13459,10 +13458,10 @@
         <v>117</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -13479,10 +13478,10 @@
         <v>118</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -13499,10 +13498,10 @@
         <v>119</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -13524,7 +13523,7 @@
         <v>13129</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -13546,7 +13545,7 @@
         <v>13604</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -13568,7 +13567,7 @@
         <v>13109</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -13590,7 +13589,7 @@
         <v>13108</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -13645,7 +13644,7 @@
         <v>6106</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -13656,7 +13655,7 @@
         <v>6108</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -13678,7 +13677,7 @@
         <v>6303</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -13700,7 +13699,7 @@
         <v>6109</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -13733,7 +13732,7 @@
         <v>6204</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -13744,7 +13743,7 @@
         <v>6203</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -13755,7 +13754,7 @@
         <v>6205</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,7 +13776,7 @@
         <v>6107</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -13788,7 +13787,7 @@
         <v>6113</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -13799,7 +13798,7 @@
         <v>6104</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -13810,7 +13809,7 @@
         <v>6310</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -13854,7 +13853,7 @@
         <v>7305</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -13865,7 +13864,7 @@
         <v>7306</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -13876,7 +13875,7 @@
         <v>7308</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -13898,7 +13897,7 @@
         <v>7108</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -13909,7 +13908,7 @@
         <v>7307</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -13931,7 +13930,7 @@
         <v>7110</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -13953,7 +13952,7 @@
         <v>7109</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -13986,7 +13985,7 @@
         <v>7104</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -14008,7 +14007,7 @@
         <v>7407</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -14019,7 +14018,7 @@
         <v>7401</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -14041,7 +14040,7 @@
         <v>7405</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -14063,7 +14062,7 @@
         <v>7202</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -14074,7 +14073,7 @@
         <v>7203</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -14085,7 +14084,7 @@
         <v>16103</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -14107,7 +14106,7 @@
         <v>16302</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -14118,7 +14117,7 @@
         <v>16106</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -14129,7 +14128,7 @@
         <v>16102</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -14151,7 +14150,7 @@
         <v>16305</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -14162,7 +14161,7 @@
         <v>16303</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -14173,7 +14172,7 @@
         <v>16204</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14216,7 @@
         <v>16207</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -14228,7 +14227,7 @@
         <v>16203</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -14250,7 +14249,7 @@
         <v>8307</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -14261,7 +14260,7 @@
         <v>8306</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -14283,7 +14282,7 @@
         <v>8304</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -14294,7 +14293,7 @@
         <v>8302</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -14305,7 +14304,7 @@
         <v>8310</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -14327,7 +14326,7 @@
         <v>8313</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -14338,7 +14337,7 @@
         <v>16109</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -14349,7 +14348,7 @@
         <v>8312</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -14371,7 +14370,7 @@
         <v>8105</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -14382,7 +14381,7 @@
         <v>8104</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -14404,7 +14403,7 @@
         <v>8204</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -14426,7 +14425,7 @@
         <v>8111</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -14437,7 +14436,7 @@
         <v>16207</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -14448,7 +14447,7 @@
         <v>16203</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14470,7 +14469,7 @@
         <v>8106</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -14481,7 +14480,7 @@
         <v>8112</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -14514,7 +14513,7 @@
         <v>8201</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -14525,7 +14524,7 @@
         <v>8206</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -14547,7 +14546,7 @@
         <v>8108</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -14558,7 +14557,7 @@
         <v>8109</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -14602,7 +14601,7 @@
         <v>8308</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -14613,7 +14612,7 @@
         <v>8309</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -14624,7 +14623,7 @@
         <v>8207</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -14646,7 +14645,7 @@
         <v>9209</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -14657,7 +14656,7 @@
         <v>9206</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -14668,7 +14667,7 @@
         <v>9208</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14690,7 +14689,7 @@
         <v>9204</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14701,7 +14700,7 @@
         <v>9202</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,7 +14711,7 @@
         <v>9210</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14723,7 +14722,7 @@
         <v>9207</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -14745,7 +14744,7 @@
         <v>9113</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -14756,7 +14755,7 @@
         <v>9106</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -14767,7 +14766,7 @@
         <v>9203</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -14778,7 +14777,7 @@
         <v>9205</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -14800,7 +14799,7 @@
         <v>9119</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -14822,7 +14821,7 @@
         <v>9121</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -14833,7 +14832,7 @@
         <v>9117</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -14855,7 +14854,7 @@
         <v>9116</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -14877,7 +14876,7 @@
         <v>9114</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -14888,7 +14887,7 @@
         <v>9118</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -14899,7 +14898,7 @@
         <v>9107</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -14921,7 +14920,7 @@
         <v>9109</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -14932,7 +14931,7 @@
         <v>9115</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -14943,7 +14942,7 @@
         <v>9104</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -14965,7 +14964,7 @@
         <v>9110</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -14976,7 +14975,7 @@
         <v>9103</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -14998,7 +14997,7 @@
         <v>14102</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -15020,7 +15019,7 @@
         <v>14204</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -15031,7 +15030,7 @@
         <v>14203</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -15053,7 +15052,7 @@
         <v>14105</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -15064,7 +15063,7 @@
         <v>14106</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -15119,7 +15118,7 @@
         <v>10303</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -15130,7 +15129,7 @@
         <v>10305</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -15141,7 +15140,7 @@
         <v>10302</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -15152,7 +15151,7 @@
         <v>10304</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -15163,7 +15162,7 @@
         <v>10306</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -15174,7 +15173,7 @@
         <v>10307</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -15196,7 +15195,7 @@
         <v>10109</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -15207,7 +15206,7 @@
         <v>10103</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -15218,7 +15217,7 @@
         <v>10102</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -15229,7 +15228,7 @@
         <v>10108</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -15240,7 +15239,7 @@
         <v>10106</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -15251,7 +15250,7 @@
         <v>10104</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -15273,7 +15272,7 @@
         <v>10105</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -15295,7 +15294,7 @@
         <v>10202</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -15306,7 +15305,7 @@
         <v>10209</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -15317,7 +15316,7 @@
         <v>10205</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -15328,7 +15327,7 @@
         <v>10204</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -15339,7 +15338,7 @@
         <v>10210</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -15350,7 +15349,7 @@
         <v>10206</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -15361,7 +15360,7 @@
         <v>10203</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -15372,7 +15371,7 @@
         <v>10207</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -15383,7 +15382,7 @@
         <v>10208</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15405,7 +15404,7 @@
         <v>10402</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15416,7 +15415,7 @@
         <v>10401</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15438,7 +15437,7 @@
         <v>11101</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15449,7 +15448,7 @@
         <v>11301</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15460,7 +15459,7 @@
         <v>11401</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15471,7 +15470,7 @@
         <v>11201</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15482,7 +15481,7 @@
         <v>11202</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15493,7 +15492,7 @@
         <v>11203</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">

--- a/Género/Violencia contra Mujer/27.11.xlsx
+++ b/Género/Violencia contra Mujer/27.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26774CA-1362-4CCB-AB86-34A7C00A90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC829A-BF33-42FA-BD01-D0668D14480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
   </bookViews>
@@ -4324,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC1950-7268-4533-993A-0DC3B075444A}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Género/Violencia contra Mujer/27.11.xlsx
+++ b/Género/Violencia contra Mujer/27.11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC829A-BF33-42FA-BD01-D0668D14480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B694322-A51B-44DD-B632-3E899EBE4900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$B$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="1102">
   <si>
     <t>Región</t>
   </si>
@@ -3334,6 +3344,9 @@
   </si>
   <si>
     <t>centros</t>
+  </si>
+  <si>
+    <t>Codreg</t>
   </si>
 </sst>
 </file>
@@ -3442,7 +3455,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3958,18 +3974,18 @@
     <tableColumn id="3" xr3:uid="{1DA15646-EDE4-4448-A470-A5F97650F818}" name="Id_Comuna"/>
     <tableColumn id="4" xr3:uid="{25FDA8DD-E0E2-45EA-8636-E3B223F20B27}" name="Comuna"/>
     <tableColumn id="5" xr3:uid="{8E44BE77-1D0F-4562-8DBC-2FAECFFC9161}" name="Nombre del Centro"/>
-    <tableColumn id="16" xr3:uid="{A3B71CB7-410F-4CC5-9039-F78D0085920C}" name="Id_Producto" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{F0340380-F673-40B6-A7F8-6B5D0327BAD7}" name="Producto" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{2DE5E696-D294-466E-A637-C0015086A5CB}" name="Id_Categoría" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{9F58F70C-0401-4FC7-BE28-0D18A7C85199}" name="Categoría" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{A3B71CB7-410F-4CC5-9039-F78D0085920C}" name="Id_Producto" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{F0340380-F673-40B6-A7F8-6B5D0327BAD7}" name="Producto" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{2DE5E696-D294-466E-A637-C0015086A5CB}" name="Id_Categoría" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{9F58F70C-0401-4FC7-BE28-0D18A7C85199}" name="Categoría" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{AF7E942B-D1CE-4E6D-B8C6-FFA9E8490CAE}" name="Ejecutor"/>
     <tableColumn id="7" xr3:uid="{CC19CAE5-78E6-4471-B907-D1E8D0728DBE}" name="Cobertura Territorial"/>
     <tableColumn id="8" xr3:uid="{6FA7298D-7FF1-443C-A32C-62E8B6CD335B}" name="Dirección"/>
-    <tableColumn id="19" xr3:uid="{9C2B3B9E-2BDB-45D9-9FB1-69A552276423}" name="Id_Tipo_de_Atención" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{9C2B3B9E-2BDB-45D9-9FB1-69A552276423}" name="Id_Tipo_de_Atención" dataDxfId="32"/>
     <tableColumn id="9" xr3:uid="{7488A00D-A9F4-4B71-9220-8BDB52ED8D2B}" name="Tipo de atención"/>
     <tableColumn id="10" xr3:uid="{80C8F0CB-F567-4F63-AD3C-3C2FBE939CA7}" name="Atención presencial"/>
     <tableColumn id="11" xr3:uid="{5F9FB3E0-E1FC-49CC-A4C3-DE001C81AA5A}" name="Atención remota"/>
-    <tableColumn id="12" xr3:uid="{B338A7D4-9288-407D-A02B-EF3784DAEE51}" name="Teléfono" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{B338A7D4-9288-407D-A02B-EF3784DAEE51}" name="Teléfono" dataDxfId="31"/>
     <tableColumn id="13" xr3:uid="{0FB5584E-0DB1-4A49-A60B-95F9E6D485D5}" name="Email"/>
     <tableColumn id="14" xr3:uid="{9BDD898E-9349-4FDF-8A81-AA09655F4737}" name="Email 2"/>
   </tableColumns>
@@ -3978,48 +3994,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{564E6FC9-7F6A-44E8-9804-20EF2A3D5899}" name="Centros_Mujer_Comunas_auxiliar" displayName="Centros_Mujer_Comunas_auxiliar" ref="A1:O2" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{564E6FC9-7F6A-44E8-9804-20EF2A3D5899}" name="Centros_Mujer_Comunas_auxiliar" displayName="Centros_Mujer_Comunas_auxiliar" ref="A1:O2" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:O2" xr:uid="{564E6FC9-7F6A-44E8-9804-20EF2A3D5899}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{920557B3-1948-4FFF-8791-C7A471803681}" name="Id_auxiliar" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{60614FBF-B253-41C0-99D7-81BF38C7A3C9}" name="Categoría" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F34F8994-BD3D-4089-9982-9A4C69D1052F}" name="Definición" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{E27B3BD3-72C1-4B05-95EA-84791E3C631F}" name="Parámetro" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{AFFBB39E-0A4B-4B0C-8827-5EBC08BEB292}" name="Detalle" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{4D97E7F3-6330-45DC-90F9-24AB8858AE2C}" name="Territorio" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{C0C491B0-B277-4AA6-8ED3-F78CE9CF0CB4}" name="Temporalidad" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E40546D3-DCEB-4F0A-AF3A-64BF9233181D}" name="Título" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{D71289B9-23EC-4E9C-8A25-319BEF2B1B47}" name="Tags" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{213969C2-11E5-4EC1-B97A-F8ED5BB78F02}" name="ISO país" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{9EF0C0B1-6FA5-4E15-8BB8-4239EDB57044}" name="Nivel administrativo" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{66BB16F2-3D59-439A-9246-CFD9F17284C9}" name="Descripción larga" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{F04299AE-224E-4884-A66A-3E5AACC9CE23}" name="Fecha" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{013209D4-3467-4A0E-A92D-E0658B709C5C}" name="Unidad" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{910A8603-36B7-418E-B3A3-242DD7A3E50B}" name="Responsable" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{920557B3-1948-4FFF-8791-C7A471803681}" name="Id_auxiliar" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{60614FBF-B253-41C0-99D7-81BF38C7A3C9}" name="Categoría" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F34F8994-BD3D-4089-9982-9A4C69D1052F}" name="Definición" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{E27B3BD3-72C1-4B05-95EA-84791E3C631F}" name="Parámetro" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{AFFBB39E-0A4B-4B0C-8827-5EBC08BEB292}" name="Detalle" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{4D97E7F3-6330-45DC-90F9-24AB8858AE2C}" name="Territorio" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C0C491B0-B277-4AA6-8ED3-F78CE9CF0CB4}" name="Temporalidad" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{E40546D3-DCEB-4F0A-AF3A-64BF9233181D}" name="Título" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{D71289B9-23EC-4E9C-8A25-319BEF2B1B47}" name="Tags" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{213969C2-11E5-4EC1-B97A-F8ED5BB78F02}" name="ISO país" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{9EF0C0B1-6FA5-4E15-8BB8-4239EDB57044}" name="Nivel administrativo" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{66BB16F2-3D59-439A-9246-CFD9F17284C9}" name="Descripción larga" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{F04299AE-224E-4884-A66A-3E5AACC9CE23}" name="Fecha" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{013209D4-3467-4A0E-A92D-E0658B709C5C}" name="Unidad" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{910A8603-36B7-418E-B3A3-242DD7A3E50B}" name="Responsable" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}" name="Alcaldesas_versus_Centros_Mujer" displayName="Alcaldesas_versus_Centros_Mujer" ref="E1:G114" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="E1:G114" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}" name="Alcaldesas_versus_Centros_Mujer" displayName="Alcaldesas_versus_Centros_Mujer" ref="G1:I114" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="G1:I114" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3561124C-3C50-40EB-8DE1-3CFB1442C738}" name="Comuna" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2927788F-D479-4DAE-B817-89E248607747}" name="Alcalde/sa 2016-2020" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{22C42E19-22FD-4321-BE54-CB2AC182ACA0}" name="Alcalde/sa 2021-2024" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3561124C-3C50-40EB-8DE1-3CFB1442C738}" name="Comuna" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2927788F-D479-4DAE-B817-89E248607747}" name="Alcalde/sa 2016-2020" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{22C42E19-22FD-4321-BE54-CB2AC182ACA0}" name="Alcalde/sa 2021-2024" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}" name="Cobertura_Centros_Mujer" displayName="Cobertura_Centros_Mujer" ref="A1:C298" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C298" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A4AD82B6-8117-40E7-8760-872CF445430E}" name="Id_Comuna" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CEBCBAB5-A5A8-49E5-AE86-1F17191F0953}" name="Id_Cobertura" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{32042DEB-A926-48FD-955A-B630AAB580EF}" name="Comuna_Cubierta" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}" name="Cobertura_Centros_Mujer" displayName="Cobertura_Centros_Mujer" ref="A1:D298" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D298" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A4AD82B6-8117-40E7-8760-872CF445430E}" name="Id_Comuna" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CEBCBAB5-A5A8-49E5-AE86-1F17191F0953}" name="Id_Cobertura" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{32042DEB-A926-48FD-955A-B630AAB580EF}" name="Comuna_Cubierta" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B34B0E42-37FD-49C3-8B8E-0FDC15BE21A3}" name="Codreg" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4324,23 +4341,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC1950-7268-4533-993A-0DC3B075444A}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="9" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="5" max="9" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1092</v>
       </c>
@@ -4402,7 +4419,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4520,7 +4537,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4579,7 +4596,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4638,7 +4655,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4756,7 +4773,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4815,7 +4832,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4874,7 +4891,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4933,7 +4950,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4992,7 +5009,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5051,7 +5068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5172,7 +5189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5231,7 +5248,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5290,7 +5307,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5467,7 +5484,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5585,7 +5602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5703,7 +5720,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5762,7 +5779,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5821,7 +5838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5880,7 +5897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5998,7 +6015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6057,7 +6074,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6116,7 +6133,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6175,7 +6192,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6234,7 +6251,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6293,7 +6310,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6355,7 +6372,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6414,7 +6431,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6473,7 +6490,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6650,7 +6667,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6709,7 +6726,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -6768,7 +6785,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6827,7 +6844,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6886,7 +6903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6945,7 +6962,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -7004,7 +7021,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -7063,7 +7080,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -7122,7 +7139,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -7181,7 +7198,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -7240,7 +7257,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -7299,7 +7316,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -7417,7 +7434,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -7476,7 +7493,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -7535,7 +7552,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -7594,7 +7611,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -7653,7 +7670,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -7712,7 +7729,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7771,7 +7788,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7830,7 +7847,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -7889,7 +7906,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7948,7 +7965,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8007,7 +8024,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8066,7 +8083,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -8125,7 +8142,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -8184,7 +8201,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -8243,7 +8260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -8302,7 +8319,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -8361,7 +8378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -8420,7 +8437,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -8479,7 +8496,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -8538,7 +8555,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -8597,7 +8614,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8656,7 +8673,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -8712,7 +8729,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8771,7 +8788,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -8830,7 +8847,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -8889,7 +8906,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -8948,7 +8965,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -9007,7 +9024,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -9066,7 +9083,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -9125,7 +9142,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9184,7 +9201,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -9243,7 +9260,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -9302,7 +9319,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9361,7 +9378,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9420,7 +9437,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9479,7 +9496,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9538,7 +9555,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9597,7 +9614,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -9659,7 +9676,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -9718,7 +9735,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9777,7 +9794,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -9836,7 +9853,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9895,7 +9912,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -9954,7 +9971,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -10013,7 +10030,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -10072,7 +10089,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -10131,7 +10148,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -10190,7 +10207,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -10249,7 +10266,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -10308,7 +10325,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -10367,7 +10384,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10426,7 +10443,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -10485,7 +10502,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -10544,7 +10561,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -10603,7 +10620,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -10662,7 +10679,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -10721,7 +10738,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -10780,7 +10797,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -10839,7 +10856,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -10898,7 +10915,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -10957,7 +10974,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -11016,7 +11033,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -11091,20 +11108,20 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1092</v>
       </c>
@@ -11151,7 +11168,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -11208,22 +11225,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0EEB4-02A4-4CBE-8050-86FAAF4F3C91}">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>749</v>
       </c>
@@ -11233,18 +11252,22 @@
       <c r="C1" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>15101</v>
       </c>
@@ -11254,17 +11277,21 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>15101</v>
       </c>
@@ -11274,17 +11301,21 @@
       <c r="C3" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1101</v>
       </c>
@@ -11294,17 +11325,22 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1107</v>
       </c>
@@ -11314,17 +11350,22 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1401</v>
       </c>
@@ -11334,17 +11375,22 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1401</v>
       </c>
@@ -11354,17 +11400,22 @@
       <c r="C7" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1401</v>
       </c>
@@ -11374,17 +11425,22 @@
       <c r="C8" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1401</v>
       </c>
@@ -11394,17 +11450,22 @@
       <c r="C9" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1401</v>
       </c>
@@ -11414,17 +11475,22 @@
       <c r="C10" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2101</v>
       </c>
@@ -11434,17 +11500,22 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2101</v>
       </c>
@@ -11454,17 +11525,22 @@
       <c r="C12" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2101</v>
       </c>
@@ -11474,17 +11550,22 @@
       <c r="C13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2101</v>
       </c>
@@ -11494,17 +11575,22 @@
       <c r="C14" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2201</v>
       </c>
@@ -11514,17 +11600,22 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2201</v>
       </c>
@@ -11534,17 +11625,22 @@
       <c r="C16" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2201</v>
       </c>
@@ -11554,17 +11650,22 @@
       <c r="C17" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2301</v>
       </c>
@@ -11574,17 +11675,22 @@
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2301</v>
       </c>
@@ -11594,17 +11700,22 @@
       <c r="C19" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3101</v>
       </c>
@@ -11614,17 +11725,22 @@
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3101</v>
       </c>
@@ -11634,17 +11750,22 @@
       <c r="C21" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3101</v>
       </c>
@@ -11654,17 +11775,22 @@
       <c r="C22" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3301</v>
       </c>
@@ -11674,17 +11800,22 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="G23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3301</v>
       </c>
@@ -11694,17 +11825,22 @@
       <c r="C24" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3301</v>
       </c>
@@ -11714,17 +11850,22 @@
       <c r="C25" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3301</v>
       </c>
@@ -11734,17 +11875,22 @@
       <c r="C26" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>3201</v>
       </c>
@@ -11754,17 +11900,22 @@
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="G27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3201</v>
       </c>
@@ -11774,17 +11925,22 @@
       <c r="C28" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4101</v>
       </c>
@@ -11794,17 +11950,22 @@
       <c r="C29" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4101</v>
       </c>
@@ -11814,17 +11975,22 @@
       <c r="C30" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4101</v>
       </c>
@@ -11834,17 +12000,22 @@
       <c r="C31" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="G31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4201</v>
       </c>
@@ -11854,17 +12025,22 @@
       <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="G32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4201</v>
       </c>
@@ -11874,17 +12050,22 @@
       <c r="C33" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="G33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4201</v>
       </c>
@@ -11894,17 +12075,22 @@
       <c r="C34" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4201</v>
       </c>
@@ -11914,17 +12100,22 @@
       <c r="C35" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4301</v>
       </c>
@@ -11934,17 +12125,22 @@
       <c r="C36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="G36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4301</v>
       </c>
@@ -11954,17 +12150,22 @@
       <c r="C37" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="G37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4301</v>
       </c>
@@ -11974,17 +12175,22 @@
       <c r="C38" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>4301</v>
       </c>
@@ -11994,17 +12200,22 @@
       <c r="C39" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="G39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4301</v>
       </c>
@@ -12014,17 +12225,22 @@
       <c r="C40" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="G40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>4102</v>
       </c>
@@ -12034,17 +12250,22 @@
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="G41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>4102</v>
       </c>
@@ -12054,17 +12275,22 @@
       <c r="C42" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4102</v>
       </c>
@@ -12074,17 +12300,22 @@
       <c r="C43" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="G43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>5101</v>
       </c>
@@ -12094,17 +12325,22 @@
       <c r="C44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="G44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5701</v>
       </c>
@@ -12114,17 +12350,22 @@
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="G45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>5701</v>
       </c>
@@ -12134,17 +12375,22 @@
       <c r="C46" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="G46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>5701</v>
       </c>
@@ -12154,17 +12400,22 @@
       <c r="C47" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="G47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>5701</v>
       </c>
@@ -12174,17 +12425,22 @@
       <c r="C48" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>5301</v>
       </c>
@@ -12194,17 +12450,22 @@
       <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="G49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>5301</v>
       </c>
@@ -12214,17 +12475,22 @@
       <c r="C50" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="G50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>5301</v>
       </c>
@@ -12234,17 +12500,22 @@
       <c r="C51" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="G51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>5301</v>
       </c>
@@ -12254,17 +12525,22 @@
       <c r="C52" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="G52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>5401</v>
       </c>
@@ -12274,17 +12550,22 @@
       <c r="C53" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="G53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>5401</v>
       </c>
@@ -12294,17 +12575,22 @@
       <c r="C54" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="G54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>5401</v>
       </c>
@@ -12314,17 +12600,22 @@
       <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="G55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>5502</v>
       </c>
@@ -12334,17 +12625,22 @@
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="G56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>5502</v>
       </c>
@@ -12354,17 +12650,22 @@
       <c r="C57" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="G57" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>5502</v>
       </c>
@@ -12374,17 +12675,22 @@
       <c r="C58" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="G58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5502</v>
       </c>
@@ -12394,17 +12700,22 @@
       <c r="C59" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="G59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>5103</v>
       </c>
@@ -12414,17 +12725,22 @@
       <c r="C60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="G60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5103</v>
       </c>
@@ -12434,17 +12750,22 @@
       <c r="C61" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="G61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>5103</v>
       </c>
@@ -12454,17 +12775,22 @@
       <c r="C62" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="G62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>5804</v>
       </c>
@@ -12474,17 +12800,22 @@
       <c r="C63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="G63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>5804</v>
       </c>
@@ -12494,17 +12825,22 @@
       <c r="C64" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="G64" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>5703</v>
       </c>
@@ -12514,17 +12850,22 @@
       <c r="C65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="G65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>5703</v>
       </c>
@@ -12534,17 +12875,22 @@
       <c r="C66" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="G66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>5601</v>
       </c>
@@ -12554,17 +12900,22 @@
       <c r="C67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="G67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>5601</v>
       </c>
@@ -12574,17 +12925,22 @@
       <c r="C68" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="G68" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>5601</v>
       </c>
@@ -12594,17 +12950,22 @@
       <c r="C69" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="G69" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>5601</v>
       </c>
@@ -12614,17 +12975,22 @@
       <c r="C70" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="G70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>5601</v>
       </c>
@@ -12634,17 +13000,22 @@
       <c r="C71" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="G71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>5601</v>
       </c>
@@ -12654,17 +13025,22 @@
       <c r="C72" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="G72" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>5109</v>
       </c>
@@ -12674,17 +13050,22 @@
       <c r="C73" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="D73" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="G73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>5802</v>
       </c>
@@ -12694,17 +13075,22 @@
       <c r="C74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="G74" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>5802</v>
       </c>
@@ -12714,17 +13100,22 @@
       <c r="C75" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="G75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>5802</v>
       </c>
@@ -12734,17 +13125,22 @@
       <c r="C76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="G76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>5201</v>
       </c>
@@ -12754,17 +13150,22 @@
       <c r="C77" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="G77" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>13501</v>
       </c>
@@ -12774,17 +13175,22 @@
       <c r="C78" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="G78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>13501</v>
       </c>
@@ -12794,17 +13200,22 @@
       <c r="C79" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="G79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>13501</v>
       </c>
@@ -12814,17 +13225,22 @@
       <c r="C80" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="G80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>13122</v>
       </c>
@@ -12834,17 +13250,22 @@
       <c r="C81" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="G81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>13401</v>
       </c>
@@ -12854,17 +13275,22 @@
       <c r="C82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="G82" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>13402</v>
       </c>
@@ -12874,17 +13300,22 @@
       <c r="C83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>13402</v>
       </c>
@@ -12894,17 +13325,22 @@
       <c r="C84" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="G84" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>13119</v>
       </c>
@@ -12914,17 +13350,22 @@
       <c r="C85" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="G85" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>13104</v>
       </c>
@@ -12934,17 +13375,22 @@
       <c r="C86" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="G86" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>13104</v>
       </c>
@@ -12954,17 +13400,22 @@
       <c r="C87" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="G87" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>13112</v>
       </c>
@@ -12974,17 +13425,22 @@
       <c r="C88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="G88" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>13125</v>
       </c>
@@ -12994,17 +13450,22 @@
       <c r="C89" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="D89" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="G89" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>13111</v>
       </c>
@@ -13014,17 +13475,22 @@
       <c r="C90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="G90" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>13124</v>
       </c>
@@ -13034,17 +13500,22 @@
       <c r="C91" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="D91" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="G91" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>13601</v>
       </c>
@@ -13054,17 +13525,22 @@
       <c r="C92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="G92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>13601</v>
       </c>
@@ -13074,17 +13550,22 @@
       <c r="C93" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="G93" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>13116</v>
       </c>
@@ -13094,17 +13575,22 @@
       <c r="C94" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="G94" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>13116</v>
       </c>
@@ -13114,17 +13600,22 @@
       <c r="C95" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="G95" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>13301</v>
       </c>
@@ -13134,17 +13625,22 @@
       <c r="C96" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="G96" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>13301</v>
       </c>
@@ -13154,17 +13650,22 @@
       <c r="C97" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="G97" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>13301</v>
       </c>
@@ -13174,17 +13675,22 @@
       <c r="C98" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="G98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>13121</v>
       </c>
@@ -13194,17 +13700,22 @@
       <c r="C99" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="G99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>13121</v>
       </c>
@@ -13214,17 +13725,22 @@
       <c r="C100" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="G100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>13201</v>
       </c>
@@ -13234,17 +13750,22 @@
       <c r="C101" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>13201</v>
       </c>
@@ -13254,17 +13775,22 @@
       <c r="C102" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="G102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="H102" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>13201</v>
       </c>
@@ -13274,17 +13800,22 @@
       <c r="C103" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="G103" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>13101</v>
       </c>
@@ -13294,17 +13825,22 @@
       <c r="C104" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="G104" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>13106</v>
       </c>
@@ -13314,17 +13850,22 @@
       <c r="C105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="G105" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>13123</v>
       </c>
@@ -13334,17 +13875,22 @@
       <c r="C106" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="D106" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="G106" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>13123</v>
       </c>
@@ -13354,17 +13900,22 @@
       <c r="C107" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="G107" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>13123</v>
       </c>
@@ -13374,17 +13925,22 @@
       <c r="C108" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="G108" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>13117</v>
       </c>
@@ -13394,17 +13950,22 @@
       <c r="C109" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="D109" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="G109" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G109" s="4" t="s">
+      <c r="H109" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>13105</v>
       </c>
@@ -13414,17 +13975,22 @@
       <c r="C110" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="G110" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>13128</v>
       </c>
@@ -13434,17 +14000,22 @@
       <c r="C111" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="G111" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>13110</v>
       </c>
@@ -13454,17 +14025,22 @@
       <c r="C112" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="G112" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>13103</v>
       </c>
@@ -13474,17 +14050,22 @@
       <c r="C113" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="G113" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>13126</v>
       </c>
@@ -13494,17 +14075,22 @@
       <c r="C114" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="D114" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="G114" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I114" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>13118</v>
       </c>
@@ -13514,8 +14100,13 @@
       <c r="C115" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>13118</v>
       </c>
@@ -13525,8 +14116,13 @@
       <c r="C116" s="3" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D116" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>13403</v>
       </c>
@@ -13536,8 +14132,13 @@
       <c r="C117" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>13403</v>
       </c>
@@ -13547,8 +14148,13 @@
       <c r="C118" s="3" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>13131</v>
       </c>
@@ -13558,8 +14164,13 @@
       <c r="C119" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>13131</v>
       </c>
@@ -13569,8 +14180,13 @@
       <c r="C120" s="3" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>13127</v>
       </c>
@@ -13580,8 +14196,13 @@
       <c r="C121" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>13127</v>
       </c>
@@ -13591,8 +14212,13 @@
       <c r="C122" s="3" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>13603</v>
       </c>
@@ -13602,8 +14228,13 @@
       <c r="C123" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D123" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>13602</v>
       </c>
@@ -13613,8 +14244,13 @@
       <c r="C124" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>13503</v>
       </c>
@@ -13624,8 +14260,13 @@
       <c r="C125" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>13</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>6101</v>
       </c>
@@ -13635,8 +14276,13 @@
       <c r="C126" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D126" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>6101</v>
       </c>
@@ -13646,8 +14292,13 @@
       <c r="C127" s="3" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>6101</v>
       </c>
@@ -13657,8 +14308,13 @@
       <c r="C128" s="3" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>6301</v>
       </c>
@@ -13668,8 +14324,13 @@
       <c r="C129" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>6301</v>
       </c>
@@ -13679,8 +14340,13 @@
       <c r="C130" s="3" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>6115</v>
       </c>
@@ -13690,8 +14356,13 @@
       <c r="C131" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>6115</v>
       </c>
@@ -13701,8 +14372,13 @@
       <c r="C132" s="3" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>6115</v>
       </c>
@@ -13712,8 +14388,13 @@
       <c r="C133" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>6201</v>
       </c>
@@ -13723,8 +14404,13 @@
       <c r="C134" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>6201</v>
       </c>
@@ -13734,8 +14420,13 @@
       <c r="C135" s="3" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>6201</v>
       </c>
@@ -13745,8 +14436,13 @@
       <c r="C136" s="3" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>6201</v>
       </c>
@@ -13756,8 +14452,13 @@
       <c r="C137" s="3" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>6117</v>
       </c>
@@ -13767,8 +14468,13 @@
       <c r="C138" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>6117</v>
       </c>
@@ -13778,8 +14484,13 @@
       <c r="C139" s="3" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>6117</v>
       </c>
@@ -13789,8 +14500,13 @@
       <c r="C140" s="3" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>6117</v>
       </c>
@@ -13800,8 +14516,13 @@
       <c r="C141" s="3" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>6310</v>
       </c>
@@ -13811,8 +14532,13 @@
       <c r="C142" s="3" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>6310</v>
       </c>
@@ -13822,8 +14548,13 @@
       <c r="C143" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>6310</v>
       </c>
@@ -13833,8 +14564,13 @@
       <c r="C144" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>7301</v>
       </c>
@@ -13844,8 +14580,13 @@
       <c r="C145" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>7301</v>
       </c>
@@ -13855,8 +14596,13 @@
       <c r="C146" s="3" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>7301</v>
       </c>
@@ -13866,8 +14612,13 @@
       <c r="C147" s="3" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>7301</v>
       </c>
@@ -13877,8 +14628,13 @@
       <c r="C148" s="3" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>7304</v>
       </c>
@@ -13888,8 +14644,13 @@
       <c r="C149" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7304</v>
       </c>
@@ -13899,8 +14660,13 @@
       <c r="C150" s="3" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>7304</v>
       </c>
@@ -13910,8 +14676,13 @@
       <c r="C151" s="3" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7101</v>
       </c>
@@ -13921,8 +14692,13 @@
       <c r="C152" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>7101</v>
       </c>
@@ -13932,8 +14708,13 @@
       <c r="C153" s="3" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>7101</v>
       </c>
@@ -13943,8 +14724,13 @@
       <c r="C154" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>7101</v>
       </c>
@@ -13954,8 +14740,13 @@
       <c r="C155" s="3" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>7101</v>
       </c>
@@ -13965,8 +14756,13 @@
       <c r="C156" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>7102</v>
       </c>
@@ -13976,8 +14772,13 @@
       <c r="C157" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>7102</v>
       </c>
@@ -13987,8 +14788,13 @@
       <c r="C158" s="3" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>7406</v>
       </c>
@@ -13998,8 +14804,13 @@
       <c r="C159" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>7406</v>
       </c>
@@ -14009,8 +14820,13 @@
       <c r="C160" s="3" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>7406</v>
       </c>
@@ -14020,8 +14836,13 @@
       <c r="C161" s="3" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>7404</v>
       </c>
@@ -14031,8 +14852,13 @@
       <c r="C162" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>7404</v>
       </c>
@@ -14042,8 +14868,13 @@
       <c r="C163" s="3" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>7201</v>
       </c>
@@ -14053,8 +14884,13 @@
       <c r="C164" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>7201</v>
       </c>
@@ -14064,8 +14900,13 @@
       <c r="C165" s="3" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>7201</v>
       </c>
@@ -14075,8 +14916,13 @@
       <c r="C166" s="3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>16101</v>
       </c>
@@ -14086,8 +14932,13 @@
       <c r="C167" s="3" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>16101</v>
       </c>
@@ -14097,8 +14948,13 @@
       <c r="C168" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>16101</v>
       </c>
@@ -14108,8 +14964,13 @@
       <c r="C169" s="3" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>16101</v>
       </c>
@@ -14119,8 +14980,13 @@
       <c r="C170" s="3" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>16101</v>
       </c>
@@ -14130,8 +14996,13 @@
       <c r="C171" s="3" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>16301</v>
       </c>
@@ -14141,8 +15012,13 @@
       <c r="C172" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>16301</v>
       </c>
@@ -14152,8 +15028,13 @@
       <c r="C173" s="3" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>16301</v>
       </c>
@@ -14163,8 +15044,13 @@
       <c r="C174" s="3" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>16301</v>
       </c>
@@ -14174,8 +15060,13 @@
       <c r="C175" s="3" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>16301</v>
       </c>
@@ -14185,8 +15076,13 @@
       <c r="C176" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>16205</v>
       </c>
@@ -14196,8 +15092,13 @@
       <c r="C177" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>16205</v>
       </c>
@@ -14207,8 +15108,13 @@
       <c r="C178" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>16205</v>
       </c>
@@ -14218,8 +15124,13 @@
       <c r="C179" s="3" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>16205</v>
       </c>
@@ -14229,8 +15140,13 @@
       <c r="C180" s="3" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>8305</v>
       </c>
@@ -14240,8 +15156,13 @@
       <c r="C181" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>8305</v>
       </c>
@@ -14251,8 +15172,13 @@
       <c r="C182" s="3" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>8305</v>
       </c>
@@ -14262,8 +15188,13 @@
       <c r="C183" s="3" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>8301</v>
       </c>
@@ -14273,8 +15204,13 @@
       <c r="C184" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>8301</v>
       </c>
@@ -14284,8 +15220,13 @@
       <c r="C185" s="3" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>8301</v>
       </c>
@@ -14295,8 +15236,13 @@
       <c r="C186" s="3" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>8301</v>
       </c>
@@ -14306,8 +15252,13 @@
       <c r="C187" s="3" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>8303</v>
       </c>
@@ -14317,8 +15268,13 @@
       <c r="C188" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>8303</v>
       </c>
@@ -14328,8 +15284,13 @@
       <c r="C189" s="3" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>8303</v>
       </c>
@@ -14339,8 +15300,13 @@
       <c r="C190" s="3" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>8303</v>
       </c>
@@ -14350,8 +15316,13 @@
       <c r="C191" s="3" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>8103</v>
       </c>
@@ -14361,8 +15332,13 @@
       <c r="C192" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>8103</v>
       </c>
@@ -14372,8 +15348,13 @@
       <c r="C193" s="3" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>8103</v>
       </c>
@@ -14383,8 +15364,13 @@
       <c r="C194" s="3" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>8203</v>
       </c>
@@ -14394,8 +15380,13 @@
       <c r="C195" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>8203</v>
       </c>
@@ -14405,8 +15396,13 @@
       <c r="C196" s="3" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>8107</v>
       </c>
@@ -14416,8 +15412,13 @@
       <c r="C197" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>8107</v>
       </c>
@@ -14427,8 +15428,13 @@
       <c r="C198" s="3" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>8107</v>
       </c>
@@ -14438,8 +15444,13 @@
       <c r="C199" s="3" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>8107</v>
       </c>
@@ -14449,8 +15460,13 @@
       <c r="C200" s="3" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>8102</v>
       </c>
@@ -14460,8 +15476,13 @@
       <c r="C201" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>8102</v>
       </c>
@@ -14471,8 +15492,13 @@
       <c r="C202" s="3" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>8110</v>
       </c>
@@ -14482,8 +15508,13 @@
       <c r="C203" s="3" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>8110</v>
       </c>
@@ -14493,8 +15524,13 @@
       <c r="C204" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>8205</v>
       </c>
@@ -14504,8 +15540,13 @@
       <c r="C205" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>8205</v>
       </c>
@@ -14515,8 +15556,13 @@
       <c r="C206" s="3" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>8205</v>
       </c>
@@ -14526,8 +15572,13 @@
       <c r="C207" s="3" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>8101</v>
       </c>
@@ -14537,8 +15588,13 @@
       <c r="C208" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>8101</v>
       </c>
@@ -14548,8 +15604,13 @@
       <c r="C209" s="3" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>8101</v>
       </c>
@@ -14559,8 +15620,13 @@
       <c r="C210" s="3" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>8202</v>
       </c>
@@ -14570,8 +15636,13 @@
       <c r="C211" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>8314</v>
       </c>
@@ -14581,8 +15652,13 @@
       <c r="C212" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>8311</v>
       </c>
@@ -14592,8 +15668,13 @@
       <c r="C213" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>8311</v>
       </c>
@@ -14603,8 +15684,13 @@
       <c r="C214" s="3" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>8311</v>
       </c>
@@ -14614,8 +15700,13 @@
       <c r="C215" s="3" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>8207</v>
       </c>
@@ -14625,8 +15716,13 @@
       <c r="C216" s="3" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>9201</v>
       </c>
@@ -14636,8 +15732,13 @@
       <c r="C217" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>9201</v>
       </c>
@@ -14647,8 +15748,13 @@
       <c r="C218" s="3" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>9201</v>
       </c>
@@ -14658,8 +15764,13 @@
       <c r="C219" s="3" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>9201</v>
       </c>
@@ -14669,8 +15780,13 @@
       <c r="C220" s="3" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>9211</v>
       </c>
@@ -14680,8 +15796,13 @@
       <c r="C221" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>9211</v>
       </c>
@@ -14691,8 +15812,13 @@
       <c r="C222" s="3" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>9211</v>
       </c>
@@ -14702,8 +15828,13 @@
       <c r="C223" s="3" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>9211</v>
       </c>
@@ -14713,8 +15844,13 @@
       <c r="C224" s="3" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>9211</v>
       </c>
@@ -14724,8 +15860,13 @@
       <c r="C225" s="3" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>9108</v>
       </c>
@@ -14735,8 +15876,13 @@
       <c r="C226" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>9108</v>
       </c>
@@ -14746,8 +15892,13 @@
       <c r="C227" s="3" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>9108</v>
       </c>
@@ -14757,8 +15908,13 @@
       <c r="C228" s="3" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>9108</v>
       </c>
@@ -14768,8 +15924,13 @@
       <c r="C229" s="3" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>9108</v>
       </c>
@@ -14779,8 +15940,13 @@
       <c r="C230" s="3" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>9101</v>
       </c>
@@ -14790,8 +15956,13 @@
       <c r="C231" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>9101</v>
       </c>
@@ -14801,8 +15972,13 @@
       <c r="C232" s="3" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>9111</v>
       </c>
@@ -14812,8 +15988,13 @@
       <c r="C233" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>9111</v>
       </c>
@@ -14823,8 +16004,13 @@
       <c r="C234" s="3" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>9111</v>
       </c>
@@ -14834,8 +16020,13 @@
       <c r="C235" s="3" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>9102</v>
       </c>
@@ -14845,8 +16036,13 @@
       <c r="C236" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>9102</v>
       </c>
@@ -14856,8 +16052,13 @@
       <c r="C237" s="3" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>9105</v>
       </c>
@@ -14867,8 +16068,13 @@
       <c r="C238" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>9105</v>
       </c>
@@ -14878,8 +16084,13 @@
       <c r="C239" s="3" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>9105</v>
       </c>
@@ -14889,8 +16100,13 @@
       <c r="C240" s="3" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>9105</v>
       </c>
@@ -14900,8 +16116,13 @@
       <c r="C241" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>9120</v>
       </c>
@@ -14911,8 +16132,13 @@
       <c r="C242" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>9120</v>
       </c>
@@ -14922,8 +16148,13 @@
       <c r="C243" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>9120</v>
       </c>
@@ -14933,8 +16164,13 @@
       <c r="C244" s="3" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>9120</v>
       </c>
@@ -14944,8 +16180,13 @@
       <c r="C245" s="3" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>9112</v>
       </c>
@@ -14955,8 +16196,13 @@
       <c r="C246" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>9112</v>
       </c>
@@ -14966,8 +16212,13 @@
       <c r="C247" s="3" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>9112</v>
       </c>
@@ -14977,8 +16228,13 @@
       <c r="C248" s="3" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>14101</v>
       </c>
@@ -14988,8 +16244,13 @@
       <c r="C249" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>14101</v>
       </c>
@@ -14999,8 +16260,13 @@
       <c r="C250" s="3" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>14201</v>
       </c>
@@ -15010,8 +16276,13 @@
       <c r="C251" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>14201</v>
       </c>
@@ -15021,8 +16292,13 @@
       <c r="C252" s="3" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>14201</v>
       </c>
@@ -15032,8 +16308,13 @@
       <c r="C253" s="3" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>14103</v>
       </c>
@@ -15043,8 +16324,13 @@
       <c r="C254" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>14103</v>
       </c>
@@ -15054,8 +16340,13 @@
       <c r="C255" s="3" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>14103</v>
       </c>
@@ -15065,8 +16356,13 @@
       <c r="C256" s="3" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>14108</v>
       </c>
@@ -15076,8 +16372,13 @@
       <c r="C257" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>14107</v>
       </c>
@@ -15087,8 +16388,13 @@
       <c r="C258" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>14202</v>
       </c>
@@ -15098,8 +16404,13 @@
       <c r="C259" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>14</v>
+      </c>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>10301</v>
       </c>
@@ -15109,8 +16420,13 @@
       <c r="C260" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>10301</v>
       </c>
@@ -15120,8 +16436,13 @@
       <c r="C261" s="3" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>10301</v>
       </c>
@@ -15131,8 +16452,13 @@
       <c r="C262" s="3" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>10301</v>
       </c>
@@ -15142,8 +16468,13 @@
       <c r="C263" s="3" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>10301</v>
       </c>
@@ -15153,8 +16484,13 @@
       <c r="C264" s="3" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>10301</v>
       </c>
@@ -15164,8 +16500,13 @@
       <c r="C265" s="3" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>10301</v>
       </c>
@@ -15175,8 +16516,13 @@
       <c r="C266" s="3" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>10101</v>
       </c>
@@ -15186,8 +16532,13 @@
       <c r="C267" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>10107</v>
       </c>
@@ -15197,8 +16548,13 @@
       <c r="C268" s="3" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>10107</v>
       </c>
@@ -15208,8 +16564,13 @@
       <c r="C269" s="3" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>10107</v>
       </c>
@@ -15219,8 +16580,13 @@
       <c r="C270" s="3" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>10107</v>
       </c>
@@ -15230,8 +16596,13 @@
       <c r="C271" s="3" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>10107</v>
       </c>
@@ -15241,8 +16612,13 @@
       <c r="C272" s="3" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>10107</v>
       </c>
@@ -15252,8 +16628,13 @@
       <c r="C273" s="3" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>10107</v>
       </c>
@@ -15263,8 +16644,13 @@
       <c r="C274" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>10107</v>
       </c>
@@ -15274,8 +16660,13 @@
       <c r="C275" s="3" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>10201</v>
       </c>
@@ -15285,8 +16676,13 @@
       <c r="C276" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>10201</v>
       </c>
@@ -15296,8 +16692,13 @@
       <c r="C277" s="3" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>10201</v>
       </c>
@@ -15307,8 +16708,13 @@
       <c r="C278" s="3" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>10201</v>
       </c>
@@ -15318,8 +16724,13 @@
       <c r="C279" s="3" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>10201</v>
       </c>
@@ -15329,8 +16740,13 @@
       <c r="C280" s="3" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>10201</v>
       </c>
@@ -15340,8 +16756,13 @@
       <c r="C281" s="3" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>10201</v>
       </c>
@@ -15351,8 +16772,13 @@
       <c r="C282" s="3" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>10201</v>
       </c>
@@ -15362,8 +16788,13 @@
       <c r="C283" s="3" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>10201</v>
       </c>
@@ -15373,8 +16804,13 @@
       <c r="C284" s="3" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>10201</v>
       </c>
@@ -15384,8 +16820,13 @@
       <c r="C285" s="3" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>10404</v>
       </c>
@@ -15395,8 +16836,13 @@
       <c r="C286" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>10404</v>
       </c>
@@ -15406,8 +16852,13 @@
       <c r="C287" s="3" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>10404</v>
       </c>
@@ -15417,8 +16868,13 @@
       <c r="C288" s="3" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>10403</v>
       </c>
@@ -15428,8 +16884,13 @@
       <c r="C289" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>10</v>
+      </c>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>11101</v>
       </c>
@@ -15439,8 +16900,13 @@
       <c r="C290" s="3" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>11101</v>
       </c>
@@ -15450,8 +16916,13 @@
       <c r="C291" s="3" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>11101</v>
       </c>
@@ -15461,8 +16932,13 @@
       <c r="C292" s="3" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>11201</v>
       </c>
@@ -15472,8 +16948,13 @@
       <c r="C293" s="3" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>11201</v>
       </c>
@@ -15483,8 +16964,13 @@
       <c r="C294" s="3" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>11201</v>
       </c>
@@ -15494,8 +16980,13 @@
       <c r="C295" s="3" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>11</v>
+      </c>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>12101</v>
       </c>
@@ -15505,8 +16996,13 @@
       <c r="C296" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>12</v>
+      </c>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>12401</v>
       </c>
@@ -15516,8 +17012,13 @@
       <c r="C297" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>12</v>
+      </c>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>12301</v>
       </c>
@@ -15527,6 +17028,11 @@
       <c r="C298" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="D298" s="3" t="str">
+        <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
+        <v>12</v>
+      </c>
+      <c r="E298" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Género/Violencia contra Mujer/27.11.xlsx
+++ b/Género/Violencia contra Mujer/27.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B694322-A51B-44DD-B632-3E899EBE4900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF67E51-91F4-47BF-92A2-E5440E7E7E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="BD" sheetId="4" r:id="rId1"/>
     <sheet name="Tabla Auxiliar" sheetId="9" r:id="rId2"/>
     <sheet name="Complementaria" sheetId="7" r:id="rId3"/>
+    <sheet name="Complementaria2" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$B$1:$T$1</definedName>
@@ -3432,7 +3433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3447,7 +3448,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3457,19 +3457,16 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3493,16 +3490,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4018,25 +4018,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}" name="Alcaldesas_versus_Centros_Mujer" displayName="Alcaldesas_versus_Centros_Mujer" ref="G1:I114" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="G1:I114" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3561124C-3C50-40EB-8DE1-3CFB1442C738}" name="Comuna" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2927788F-D479-4DAE-B817-89E248607747}" name="Alcalde/sa 2016-2020" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{22C42E19-22FD-4321-BE54-CB2AC182ACA0}" name="Alcalde/sa 2021-2024" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}" name="Cobertura_Centros_Mujer" displayName="Cobertura_Centros_Mujer" ref="A1:D298" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:D298" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A4AD82B6-8117-40E7-8760-872CF445430E}" name="Id_Comuna" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CEBCBAB5-A5A8-49E5-AE86-1F17191F0953}" name="Id_Cobertura" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{32042DEB-A926-48FD-955A-B630AAB580EF}" name="Comuna_Cubierta" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B34B0E42-37FD-49C3-8B8E-0FDC15BE21A3}" name="Codreg" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}" name="Cobertura_Centros_Mujer" displayName="Cobertura_Centros_Mujer" ref="A1:D298" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D298" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4AD82B6-8117-40E7-8760-872CF445430E}" name="Id_Comuna" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CEBCBAB5-A5A8-49E5-AE86-1F17191F0953}" name="Id_Cobertura" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{32042DEB-A926-48FD-955A-B630AAB580EF}" name="Comuna_Cubierta" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B34B0E42-37FD-49C3-8B8E-0FDC15BE21A3}" name="Codreg" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D01ACFF4-90B7-4518-AA14-36E7A71CA5AE}" name="Alcaldesas_versus_Centros_Mujer6" displayName="Alcaldesas_versus_Centros_Mujer6" ref="A1:C114" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C114" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C16AC5BA-9D6E-4F76-9DC6-568D37CEDC87}" name="Comuna" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D5532EAA-6D79-43DE-8DA8-D564FDA7018F}" name="Alcalde/sa 2016-2020" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{53E649AF-5126-4C93-B939-5FB22EC836CE}" name="Alcalde/sa 2021-2024" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11122,96 +11122,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>44356</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -11225,10 +11225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0EEB4-02A4-4CBE-8050-86FAAF4F3C91}">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11237,12 +11237,9 @@
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>749</v>
       </c>
@@ -11255,19 +11252,8 @@
       <c r="D1" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>15101</v>
       </c>
@@ -11280,18 +11266,8 @@
       <c r="D2" s="3">
         <v>15</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>15101</v>
       </c>
@@ -11304,18 +11280,8 @@
       <c r="D3" s="3">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1101</v>
       </c>
@@ -11329,18 +11295,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1107</v>
       </c>
@@ -11354,18 +11310,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1401</v>
       </c>
@@ -11379,18 +11325,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1401</v>
       </c>
@@ -11404,18 +11340,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1401</v>
       </c>
@@ -11429,18 +11355,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1401</v>
       </c>
@@ -11454,18 +11370,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1401</v>
       </c>
@@ -11479,18 +11385,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2101</v>
       </c>
@@ -11504,18 +11400,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2101</v>
       </c>
@@ -11529,18 +11415,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="G12" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2101</v>
       </c>
@@ -11554,18 +11430,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2101</v>
       </c>
@@ -11579,18 +11445,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2201</v>
       </c>
@@ -11604,18 +11460,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2201</v>
       </c>
@@ -11629,18 +11475,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2201</v>
       </c>
@@ -11654,18 +11490,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2301</v>
       </c>
@@ -11679,18 +11505,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2301</v>
       </c>
@@ -11704,18 +11520,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3101</v>
       </c>
@@ -11729,18 +11535,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="G20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3101</v>
       </c>
@@ -11754,18 +11550,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3101</v>
       </c>
@@ -11779,18 +11565,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3301</v>
       </c>
@@ -11804,18 +11580,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="G23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3301</v>
       </c>
@@ -11829,18 +11595,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="G24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3301</v>
       </c>
@@ -11854,18 +11610,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="G25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3301</v>
       </c>
@@ -11879,18 +11625,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="G26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>3201</v>
       </c>
@@ -11904,18 +11640,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="G27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3201</v>
       </c>
@@ -11929,18 +11655,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="G28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4101</v>
       </c>
@@ -11954,18 +11670,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="G29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4101</v>
       </c>
@@ -11979,18 +11685,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="G30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4101</v>
       </c>
@@ -12004,18 +11700,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="G31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4201</v>
       </c>
@@ -12029,18 +11715,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="G32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4201</v>
       </c>
@@ -12054,18 +11730,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4201</v>
       </c>
@@ -12079,18 +11745,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="G34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4201</v>
       </c>
@@ -12104,18 +11760,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="G35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4301</v>
       </c>
@@ -12129,18 +11775,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="G36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4301</v>
       </c>
@@ -12154,18 +11790,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="G37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4301</v>
       </c>
@@ -12179,18 +11805,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="G38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>4301</v>
       </c>
@@ -12204,18 +11820,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="G39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4301</v>
       </c>
@@ -12229,18 +11835,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="G40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>4102</v>
       </c>
@@ -12254,18 +11850,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="G41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>4102</v>
       </c>
@@ -12279,18 +11865,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="G42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4102</v>
       </c>
@@ -12304,18 +11880,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>4</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="G43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>5101</v>
       </c>
@@ -12329,18 +11895,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="G44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5701</v>
       </c>
@@ -12354,18 +11910,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="G45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>5701</v>
       </c>
@@ -12379,18 +11925,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="G46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>5701</v>
       </c>
@@ -12404,18 +11940,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="G47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>5701</v>
       </c>
@@ -12429,18 +11955,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="G48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>5301</v>
       </c>
@@ -12454,18 +11970,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="G49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>5301</v>
       </c>
@@ -12479,18 +11985,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="G50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>5301</v>
       </c>
@@ -12504,18 +12000,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="G51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>5301</v>
       </c>
@@ -12529,18 +12015,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="G52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>5401</v>
       </c>
@@ -12554,18 +12030,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="G53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>5401</v>
       </c>
@@ -12579,18 +12045,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="G54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>5401</v>
       </c>
@@ -12604,18 +12060,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="G55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>5502</v>
       </c>
@@ -12629,18 +12075,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="G56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>5502</v>
       </c>
@@ -12654,18 +12090,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="G57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>5502</v>
       </c>
@@ -12679,18 +12105,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="G58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5502</v>
       </c>
@@ -12704,18 +12120,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="G59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>5103</v>
       </c>
@@ -12729,18 +12135,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="G60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>5103</v>
       </c>
@@ -12754,18 +12150,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="G61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>5103</v>
       </c>
@@ -12779,18 +12165,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="G62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>5804</v>
       </c>
@@ -12804,18 +12180,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="G63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>5804</v>
       </c>
@@ -12829,18 +12195,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="G64" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>5703</v>
       </c>
@@ -12854,18 +12210,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="G65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>5703</v>
       </c>
@@ -12879,18 +12225,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="G66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>5601</v>
       </c>
@@ -12904,18 +12240,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="G67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>5601</v>
       </c>
@@ -12929,18 +12255,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="G68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>5601</v>
       </c>
@@ -12954,18 +12270,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="G69" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>5601</v>
       </c>
@@ -12979,18 +12285,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="G70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>5601</v>
       </c>
@@ -13004,18 +12300,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="G71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>5601</v>
       </c>
@@ -13029,18 +12315,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="G72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>5109</v>
       </c>
@@ -13054,18 +12330,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="G73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>5802</v>
       </c>
@@ -13079,18 +12345,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="G74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>5802</v>
       </c>
@@ -13104,18 +12360,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="G75" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>5802</v>
       </c>
@@ -13129,18 +12375,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="G76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>5201</v>
       </c>
@@ -13154,18 +12390,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>5</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="G77" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>13501</v>
       </c>
@@ -13179,18 +12405,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="G78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>13501</v>
       </c>
@@ -13204,18 +12420,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="G79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>13501</v>
       </c>
@@ -13229,18 +12435,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="G80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>13122</v>
       </c>
@@ -13254,18 +12450,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="G81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>13401</v>
       </c>
@@ -13279,18 +12465,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="G82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>13402</v>
       </c>
@@ -13304,18 +12480,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="G83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>13402</v>
       </c>
@@ -13329,18 +12495,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="G84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>13119</v>
       </c>
@@ -13354,18 +12510,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="G85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>13104</v>
       </c>
@@ -13379,18 +12525,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="G86" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>13104</v>
       </c>
@@ -13404,18 +12540,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="G87" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>13112</v>
       </c>
@@ -13429,18 +12555,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="G88" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>13125</v>
       </c>
@@ -13454,18 +12570,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="G89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>13111</v>
       </c>
@@ -13479,18 +12585,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="G90" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>13124</v>
       </c>
@@ -13504,18 +12600,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="G91" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>13601</v>
       </c>
@@ -13529,18 +12615,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="G92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>13601</v>
       </c>
@@ -13554,18 +12630,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="G93" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>13116</v>
       </c>
@@ -13579,18 +12645,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="G94" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>13116</v>
       </c>
@@ -13604,18 +12660,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="G95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>13301</v>
       </c>
@@ -13629,18 +12675,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="G96" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>13301</v>
       </c>
@@ -13654,18 +12690,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="G97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>13301</v>
       </c>
@@ -13679,18 +12705,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="G98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>13121</v>
       </c>
@@ -13704,18 +12720,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="G99" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>13121</v>
       </c>
@@ -13729,18 +12735,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="G100" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>13201</v>
       </c>
@@ -13754,18 +12750,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="G101" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>13201</v>
       </c>
@@ -13779,18 +12765,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="G102" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>13201</v>
       </c>
@@ -13804,18 +12780,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="G103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>13101</v>
       </c>
@@ -13829,18 +12795,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="G104" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>13106</v>
       </c>
@@ -13854,18 +12810,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="G105" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>13123</v>
       </c>
@@ -13879,18 +12825,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="G106" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>13123</v>
       </c>
@@ -13904,18 +12840,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="G107" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>13123</v>
       </c>
@@ -13929,18 +12855,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="G108" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>13117</v>
       </c>
@@ -13954,18 +12870,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="G109" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>13105</v>
       </c>
@@ -13979,18 +12885,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="G110" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>13128</v>
       </c>
@@ -14004,18 +12900,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="G111" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>13110</v>
       </c>
@@ -14029,18 +12915,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="G112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>13103</v>
       </c>
@@ -14054,18 +12930,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E113" s="3"/>
-      <c r="G113" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>13126</v>
       </c>
@@ -14079,18 +12945,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="G114" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>13118</v>
       </c>
@@ -14104,9 +12960,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>13118</v>
       </c>
@@ -14120,9 +12975,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>13403</v>
       </c>
@@ -14136,9 +12990,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>13403</v>
       </c>
@@ -14152,9 +13005,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>13131</v>
       </c>
@@ -14168,9 +13020,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>13131</v>
       </c>
@@ -14184,9 +13035,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>13127</v>
       </c>
@@ -14200,9 +13050,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>13127</v>
       </c>
@@ -14216,9 +13065,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>13603</v>
       </c>
@@ -14232,9 +13080,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>13602</v>
       </c>
@@ -14248,9 +13095,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>13503</v>
       </c>
@@ -14264,9 +13110,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>13</v>
       </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>6101</v>
       </c>
@@ -14280,9 +13125,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>6101</v>
       </c>
@@ -14296,9 +13140,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>6101</v>
       </c>
@@ -14312,9 +13155,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>6301</v>
       </c>
@@ -14328,9 +13170,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>6301</v>
       </c>
@@ -14344,9 +13185,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>6115</v>
       </c>
@@ -14360,9 +13200,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>6115</v>
       </c>
@@ -14376,9 +13215,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>6115</v>
       </c>
@@ -14392,9 +13230,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>6201</v>
       </c>
@@ -14408,9 +13245,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>6201</v>
       </c>
@@ -14424,9 +13260,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>6201</v>
       </c>
@@ -14440,9 +13275,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>6201</v>
       </c>
@@ -14456,9 +13290,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>6117</v>
       </c>
@@ -14472,9 +13305,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>6117</v>
       </c>
@@ -14488,9 +13320,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>6117</v>
       </c>
@@ -14504,9 +13335,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>6117</v>
       </c>
@@ -14520,9 +13350,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>6310</v>
       </c>
@@ -14536,9 +13365,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>6310</v>
       </c>
@@ -14552,9 +13380,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>6310</v>
       </c>
@@ -14568,9 +13395,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>6</v>
       </c>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>7301</v>
       </c>
@@ -14584,9 +13410,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>7301</v>
       </c>
@@ -14600,9 +13425,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>7301</v>
       </c>
@@ -14616,9 +13440,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>7301</v>
       </c>
@@ -14632,9 +13455,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>7304</v>
       </c>
@@ -14648,9 +13470,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7304</v>
       </c>
@@ -14664,9 +13485,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>7304</v>
       </c>
@@ -14680,9 +13500,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7101</v>
       </c>
@@ -14696,9 +13515,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>7101</v>
       </c>
@@ -14712,9 +13530,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>7101</v>
       </c>
@@ -14728,9 +13545,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>7101</v>
       </c>
@@ -14744,9 +13560,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>7101</v>
       </c>
@@ -14760,9 +13575,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>7102</v>
       </c>
@@ -14776,9 +13590,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>7102</v>
       </c>
@@ -14792,9 +13605,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>7406</v>
       </c>
@@ -14808,9 +13620,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>7406</v>
       </c>
@@ -14824,9 +13635,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>7406</v>
       </c>
@@ -14840,9 +13650,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>7404</v>
       </c>
@@ -14856,9 +13665,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>7404</v>
       </c>
@@ -14872,9 +13680,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>7201</v>
       </c>
@@ -14888,9 +13695,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>7201</v>
       </c>
@@ -14904,9 +13710,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>7201</v>
       </c>
@@ -14920,9 +13725,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>7</v>
       </c>
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>16101</v>
       </c>
@@ -14936,9 +13740,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>16101</v>
       </c>
@@ -14952,9 +13755,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>16101</v>
       </c>
@@ -14968,9 +13770,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>16101</v>
       </c>
@@ -14984,9 +13785,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>16101</v>
       </c>
@@ -15000,9 +13800,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>16301</v>
       </c>
@@ -15016,9 +13815,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>16301</v>
       </c>
@@ -15032,9 +13830,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>16301</v>
       </c>
@@ -15048,9 +13845,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>16301</v>
       </c>
@@ -15064,9 +13860,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>16301</v>
       </c>
@@ -15080,9 +13875,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>16205</v>
       </c>
@@ -15096,9 +13890,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>16205</v>
       </c>
@@ -15112,9 +13905,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>16205</v>
       </c>
@@ -15128,9 +13920,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>16205</v>
       </c>
@@ -15144,9 +13935,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>8305</v>
       </c>
@@ -15160,9 +13950,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>8305</v>
       </c>
@@ -15176,9 +13965,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>8305</v>
       </c>
@@ -15192,9 +13980,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>8301</v>
       </c>
@@ -15208,9 +13995,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>8301</v>
       </c>
@@ -15224,9 +14010,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>8301</v>
       </c>
@@ -15240,9 +14025,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>8301</v>
       </c>
@@ -15256,9 +14040,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>8303</v>
       </c>
@@ -15272,9 +14055,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>8303</v>
       </c>
@@ -15288,9 +14070,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>8303</v>
       </c>
@@ -15304,9 +14085,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>8303</v>
       </c>
@@ -15320,9 +14100,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>8103</v>
       </c>
@@ -15336,9 +14115,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>8103</v>
       </c>
@@ -15352,9 +14130,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>8103</v>
       </c>
@@ -15368,9 +14145,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>8203</v>
       </c>
@@ -15384,9 +14160,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>8203</v>
       </c>
@@ -15400,9 +14175,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>8107</v>
       </c>
@@ -15416,9 +14190,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>8107</v>
       </c>
@@ -15432,9 +14205,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>8107</v>
       </c>
@@ -15448,9 +14220,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>8107</v>
       </c>
@@ -15464,9 +14235,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>1</v>
       </c>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>8102</v>
       </c>
@@ -15480,9 +14250,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>8102</v>
       </c>
@@ -15496,9 +14265,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>8110</v>
       </c>
@@ -15512,9 +14280,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>8110</v>
       </c>
@@ -15528,9 +14295,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>8205</v>
       </c>
@@ -15544,9 +14310,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>8205</v>
       </c>
@@ -15560,9 +14325,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>8205</v>
       </c>
@@ -15576,9 +14340,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>8101</v>
       </c>
@@ -15592,9 +14355,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>8101</v>
       </c>
@@ -15608,9 +14370,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>8101</v>
       </c>
@@ -15624,9 +14385,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>8202</v>
       </c>
@@ -15640,9 +14400,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>8314</v>
       </c>
@@ -15656,9 +14415,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>8311</v>
       </c>
@@ -15672,9 +14430,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>8311</v>
       </c>
@@ -15688,9 +14445,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>8311</v>
       </c>
@@ -15704,9 +14460,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>8207</v>
       </c>
@@ -15720,9 +14475,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>8</v>
       </c>
-      <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>9201</v>
       </c>
@@ -15736,9 +14490,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>9201</v>
       </c>
@@ -15752,9 +14505,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>9201</v>
       </c>
@@ -15768,9 +14520,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E219" s="3"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>9201</v>
       </c>
@@ -15784,9 +14535,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>9211</v>
       </c>
@@ -15800,9 +14550,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>9211</v>
       </c>
@@ -15816,9 +14565,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E222" s="3"/>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>9211</v>
       </c>
@@ -15832,9 +14580,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>9211</v>
       </c>
@@ -15848,9 +14595,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E224" s="3"/>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>9211</v>
       </c>
@@ -15864,9 +14610,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E225" s="3"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>9108</v>
       </c>
@@ -15880,9 +14625,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E226" s="3"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>9108</v>
       </c>
@@ -15896,9 +14640,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E227" s="3"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>9108</v>
       </c>
@@ -15912,9 +14655,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E228" s="3"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>9108</v>
       </c>
@@ -15928,9 +14670,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E229" s="3"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>9108</v>
       </c>
@@ -15944,9 +14685,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E230" s="3"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>9101</v>
       </c>
@@ -15960,9 +14700,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E231" s="3"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>9101</v>
       </c>
@@ -15976,9 +14715,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E232" s="3"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>9111</v>
       </c>
@@ -15992,9 +14730,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E233" s="3"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>9111</v>
       </c>
@@ -16008,9 +14745,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E234" s="3"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>9111</v>
       </c>
@@ -16024,9 +14760,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E235" s="3"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>9102</v>
       </c>
@@ -16040,9 +14775,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E236" s="3"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>9102</v>
       </c>
@@ -16056,9 +14790,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E237" s="3"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>9105</v>
       </c>
@@ -16072,9 +14805,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E238" s="3"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>9105</v>
       </c>
@@ -16088,9 +14820,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E239" s="3"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>9105</v>
       </c>
@@ -16104,9 +14835,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E240" s="3"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>9105</v>
       </c>
@@ -16120,9 +14850,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E241" s="3"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>9120</v>
       </c>
@@ -16136,9 +14865,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E242" s="3"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>9120</v>
       </c>
@@ -16152,9 +14880,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E243" s="3"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>9120</v>
       </c>
@@ -16168,9 +14895,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E244" s="3"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>9120</v>
       </c>
@@ -16184,9 +14910,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E245" s="3"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>9112</v>
       </c>
@@ -16200,9 +14925,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E246" s="3"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>9112</v>
       </c>
@@ -16216,9 +14940,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E247" s="3"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>9112</v>
       </c>
@@ -16232,9 +14955,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],1)</f>
         <v>9</v>
       </c>
-      <c r="E248" s="3"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>14101</v>
       </c>
@@ -16248,9 +14970,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E249" s="3"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>14101</v>
       </c>
@@ -16264,9 +14985,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E250" s="3"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>14201</v>
       </c>
@@ -16280,9 +15000,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E251" s="3"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>14201</v>
       </c>
@@ -16296,9 +15015,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E252" s="3"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>14201</v>
       </c>
@@ -16312,9 +15030,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E253" s="3"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>14103</v>
       </c>
@@ -16328,9 +15045,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E254" s="3"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>14103</v>
       </c>
@@ -16344,9 +15060,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E255" s="3"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>14103</v>
       </c>
@@ -16360,9 +15075,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E256" s="3"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>14108</v>
       </c>
@@ -16376,9 +15090,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E257" s="3"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>14107</v>
       </c>
@@ -16392,9 +15105,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E258" s="3"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>14202</v>
       </c>
@@ -16408,9 +15120,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>14</v>
       </c>
-      <c r="E259" s="3"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>10301</v>
       </c>
@@ -16424,9 +15135,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E260" s="3"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>10301</v>
       </c>
@@ -16440,9 +15150,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E261" s="3"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>10301</v>
       </c>
@@ -16456,9 +15165,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E262" s="3"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>10301</v>
       </c>
@@ -16472,9 +15180,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E263" s="3"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>10301</v>
       </c>
@@ -16488,9 +15195,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E264" s="3"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>10301</v>
       </c>
@@ -16504,9 +15210,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E265" s="3"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>10301</v>
       </c>
@@ -16520,9 +15225,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E266" s="3"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>10101</v>
       </c>
@@ -16536,9 +15240,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E267" s="3"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>10107</v>
       </c>
@@ -16552,9 +15255,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E268" s="3"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>10107</v>
       </c>
@@ -16568,9 +15270,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E269" s="3"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>10107</v>
       </c>
@@ -16584,9 +15285,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E270" s="3"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>10107</v>
       </c>
@@ -16600,9 +15300,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E271" s="3"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>10107</v>
       </c>
@@ -16616,9 +15315,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E272" s="3"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>10107</v>
       </c>
@@ -16632,9 +15330,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E273" s="3"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>10107</v>
       </c>
@@ -16648,9 +15345,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E274" s="3"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>10107</v>
       </c>
@@ -16664,9 +15360,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E275" s="3"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>10201</v>
       </c>
@@ -16680,9 +15375,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E276" s="3"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>10201</v>
       </c>
@@ -16696,9 +15390,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E277" s="3"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>10201</v>
       </c>
@@ -16712,9 +15405,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E278" s="3"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>10201</v>
       </c>
@@ -16728,9 +15420,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E279" s="3"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>10201</v>
       </c>
@@ -16744,9 +15435,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>10201</v>
       </c>
@@ -16760,9 +15450,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E281" s="3"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>10201</v>
       </c>
@@ -16776,9 +15465,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E282" s="3"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>10201</v>
       </c>
@@ -16792,9 +15480,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E283" s="3"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>10201</v>
       </c>
@@ -16808,9 +15495,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E284" s="3"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>10201</v>
       </c>
@@ -16824,9 +15510,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E285" s="3"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>10404</v>
       </c>
@@ -16840,9 +15525,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E286" s="3"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>10404</v>
       </c>
@@ -16856,9 +15540,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E287" s="3"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>10404</v>
       </c>
@@ -16872,9 +15555,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E288" s="3"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>10403</v>
       </c>
@@ -16888,9 +15570,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>10</v>
       </c>
-      <c r="E289" s="3"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>11101</v>
       </c>
@@ -16904,9 +15585,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>11101</v>
       </c>
@@ -16920,9 +15600,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>11101</v>
       </c>
@@ -16936,9 +15615,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E292" s="3"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>11201</v>
       </c>
@@ -16952,9 +15630,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E293" s="3"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>11201</v>
       </c>
@@ -16968,9 +15645,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E294" s="3"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>11201</v>
       </c>
@@ -16984,9 +15660,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>11</v>
       </c>
-      <c r="E295" s="3"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>12101</v>
       </c>
@@ -17000,9 +15675,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>12</v>
       </c>
-      <c r="E296" s="3"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>12401</v>
       </c>
@@ -17016,9 +15690,8 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>12</v>
       </c>
-      <c r="E297" s="3"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>12301</v>
       </c>
@@ -17032,13 +15705,1292 @@
         <f>+LEFT(Cobertura_Centros_Mujer[[#This Row],[Id_Cobertura]],2)</f>
         <v>12</v>
       </c>
-      <c r="E298" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1366C5-B729-4EED-BDED-2796BFC71655}">
+  <dimension ref="A1:C225"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>